--- a/Subresultados/50tries/xlsx/woGRASP/GACEP3103_3_50.xlsx
+++ b/Subresultados/50tries/xlsx/woGRASP/GACEP3103_3_50.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Manuel\Desktop\TFG_IRENE\xlsx\woGRASP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="GACEP" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="GACEP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,328 +26,310 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
-    <t xml:space="preserve">milestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F97</t>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,7 +341,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -363,4511 +349,4749 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:CT15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.38"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="0" t="s">
+      <c r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="0" t="s">
+      <c r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="0" t="s">
+      <c r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="0" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>174488</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>58228.4</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>174321</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>218662</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>222737</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>49463</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>7769.18</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>40028.7</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="I2">
+        <v>40028.699999999997</v>
+      </c>
+      <c r="J2">
         <v>228150</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>17982.5</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>12588.7</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>52494.7</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>2575.46</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>45504.8</v>
-      </c>
-      <c r="P2" s="0" t="n">
+      <c r="O2">
+        <v>45504.800000000003</v>
+      </c>
+      <c r="P2">
         <v>59618.8</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>28154.9</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2">
         <v>9558.32</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>14598.3</v>
       </c>
-      <c r="T2" s="0" t="n">
-        <v>28487.2</v>
-      </c>
-      <c r="U2" s="0" t="n">
+      <c r="T2">
+        <v>28487.200000000001</v>
+      </c>
+      <c r="U2">
         <v>76373.3</v>
       </c>
-      <c r="V2" s="0" t="n">
-        <v>69099.4</v>
-      </c>
-      <c r="W2" s="0" t="n">
+      <c r="V2">
+        <v>69099.399999999994</v>
+      </c>
+      <c r="W2">
         <v>97097.8</v>
       </c>
-      <c r="X2" s="0" t="n">
-        <v>23250.8</v>
-      </c>
-      <c r="Y2" s="0" t="n">
+      <c r="X2">
+        <v>23250.799999999999</v>
+      </c>
+      <c r="Y2">
         <v>98669.4</v>
       </c>
-      <c r="Z2" s="0" t="n">
-        <v>39561.8</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>10425.2</v>
-      </c>
-      <c r="AB2" s="0" t="n">
+      <c r="Z2">
+        <v>39561.800000000003</v>
+      </c>
+      <c r="AA2">
+        <v>10425.200000000001</v>
+      </c>
+      <c r="AB2">
         <v>37949.5</v>
       </c>
-      <c r="AC2" s="0" t="n">
-        <v>40017.7</v>
-      </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AC2">
+        <v>40017.699999999997</v>
+      </c>
+      <c r="AD2">
         <v>54500.7</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>129609</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>187717</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>77591.7</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2">
         <v>42732.1</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2">
         <v>55271.1</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AJ2">
         <v>16706.5</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AK2">
         <v>131728</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AL2">
         <v>93523</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2">
         <v>11598.5</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AN2">
         <v>84430.2</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2">
         <v>241049</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AP2">
         <v>918868</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AQ2">
         <v>180966</v>
       </c>
-      <c r="AR2" s="0" t="n">
+      <c r="AR2">
         <v>14853</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2">
         <v>48597.5</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2">
         <v>701698</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2">
         <v>22537.8</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2">
         <v>594517</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2">
         <v>698654</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2">
         <v>514811</v>
       </c>
-      <c r="AY2" s="0" t="n">
+      <c r="AY2">
         <v>25331</v>
       </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="AZ2">
         <v>181901</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2">
         <v>231662</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BB2">
         <v>206304</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2">
         <v>161043</v>
       </c>
-      <c r="BD2" s="0" t="n">
+      <c r="BD2">
         <v>49696.7</v>
       </c>
-      <c r="BE2" s="0" t="n">
+      <c r="BE2">
         <v>34550.5</v>
       </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BF2">
         <v>113228</v>
       </c>
-      <c r="BG2" s="0" t="n">
+      <c r="BG2">
         <v>27048</v>
       </c>
-      <c r="BH2" s="0" t="n">
+      <c r="BH2">
         <v>219831</v>
       </c>
-      <c r="BI2" s="0" t="n">
+      <c r="BI2">
         <v>316293</v>
       </c>
-      <c r="BJ2" s="0" t="n">
+      <c r="BJ2">
         <v>147101</v>
       </c>
-      <c r="BK2" s="0" t="n">
+      <c r="BK2">
         <v>157554</v>
       </c>
-      <c r="BL2" s="0" t="n">
+      <c r="BL2">
         <v>151920</v>
       </c>
-      <c r="BM2" s="0" t="n">
+      <c r="BM2">
         <v>470264</v>
       </c>
-      <c r="BN2" s="0" t="n">
+      <c r="BN2">
         <v>403596</v>
       </c>
-      <c r="BO2" s="0" t="n">
+      <c r="BO2">
         <v>154904</v>
       </c>
-      <c r="BP2" s="0" t="n">
+      <c r="BP2">
         <v>258266</v>
       </c>
-      <c r="BQ2" s="0" t="n">
-        <v>55550.4</v>
-      </c>
-      <c r="BR2" s="0" t="n">
+      <c r="BQ2">
+        <v>55550.400000000001</v>
+      </c>
+      <c r="BR2">
         <v>73805.2</v>
       </c>
-      <c r="BS2" s="0" t="n">
+      <c r="BS2">
         <v>348507</v>
       </c>
-      <c r="BT2" s="0" t="n">
+      <c r="BT2">
         <v>191937</v>
       </c>
-      <c r="BU2" s="0" t="n">
+      <c r="BU2">
         <v>27004.7</v>
       </c>
-      <c r="BV2" s="0" t="n">
+      <c r="BV2">
         <v>64660.9</v>
       </c>
-      <c r="BW2" s="0" t="n">
-        <v>73684.6</v>
-      </c>
-      <c r="BX2" s="0" t="n">
+      <c r="BW2">
+        <v>73684.600000000006</v>
+      </c>
+      <c r="BX2">
         <v>141893</v>
       </c>
-      <c r="BY2" s="0" t="n">
+      <c r="BY2">
         <v>172429</v>
       </c>
-      <c r="BZ2" s="0" t="n">
+      <c r="BZ2">
         <v>538603</v>
       </c>
-      <c r="CA2" s="0" t="n">
+      <c r="CA2">
         <v>432128</v>
       </c>
-      <c r="CB2" s="0" t="n">
+      <c r="CB2">
         <v>308638</v>
       </c>
-      <c r="CC2" s="0" t="n">
+      <c r="CC2">
         <v>11785.3</v>
       </c>
-      <c r="CD2" s="0" t="n">
+      <c r="CD2">
         <v>198768</v>
       </c>
-      <c r="CE2" s="0" t="n">
+      <c r="CE2">
         <v>383489</v>
       </c>
-      <c r="CF2" s="0" t="n">
+      <c r="CF2">
         <v>8010.86</v>
       </c>
-      <c r="CG2" s="0" t="n">
+      <c r="CG2">
         <v>177516</v>
       </c>
-      <c r="CH2" s="0" t="n">
+      <c r="CH2">
         <v>445910</v>
       </c>
-      <c r="CI2" s="0" t="n">
+      <c r="CI2">
         <v>6165.76</v>
       </c>
-      <c r="CJ2" s="0" t="n">
+      <c r="CJ2">
         <v>157220</v>
       </c>
-      <c r="CK2" s="0" t="n">
+      <c r="CK2">
         <v>936984</v>
       </c>
-      <c r="CL2" s="0" t="n">
+      <c r="CL2">
         <v>339490</v>
       </c>
-      <c r="CM2" s="0" t="n">
+      <c r="CM2">
         <v>50110.2</v>
       </c>
-      <c r="CN2" s="0" t="n">
+      <c r="CN2">
         <v>770105</v>
       </c>
-      <c r="CO2" s="0" t="n">
+      <c r="CO2">
         <v>164005</v>
       </c>
-      <c r="CP2" s="0" t="n">
+      <c r="CP2">
         <v>590926</v>
       </c>
-      <c r="CQ2" s="0" t="n">
+      <c r="CQ2">
         <v>592828</v>
       </c>
-      <c r="CR2" s="0" t="n">
-        <v>22003.6</v>
-      </c>
-      <c r="CS2" s="0" t="n">
+      <c r="CR2">
+        <v>22003.599999999999</v>
+      </c>
+      <c r="CS2">
         <v>623022</v>
       </c>
-      <c r="CT2" s="0" t="n">
+      <c r="CT2">
         <v>622338</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>177539</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>61962.7</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>176324</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>219521</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>224012</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>53366</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>8631.84</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>44542.7</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>229210</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>18939.2</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>14242.6</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>53078.2</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3">
         <v>2881.26</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3">
         <v>46269.8</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3">
         <v>59857</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3">
         <v>29791.4</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3">
         <v>10522</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3">
         <v>15914.9</v>
       </c>
-      <c r="T3" s="0" t="n">
-        <v>29294.4</v>
-      </c>
-      <c r="U3" s="0" t="n">
+      <c r="T3">
+        <v>29294.400000000001</v>
+      </c>
+      <c r="U3">
         <v>78916.5</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3">
         <v>72213.7</v>
       </c>
-      <c r="W3" s="0" t="n">
-        <v>98636.8</v>
-      </c>
-      <c r="X3" s="0" t="n">
+      <c r="W3">
+        <v>98636.800000000003</v>
+      </c>
+      <c r="X3">
         <v>25769.3</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Y3">
         <v>99771.1</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="Z3">
         <v>42588.2</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AA3">
         <v>11649.5</v>
       </c>
-      <c r="AB3" s="0" t="n">
-        <v>40124.7</v>
-      </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AB3">
+        <v>40124.699999999997</v>
+      </c>
+      <c r="AC3">
         <v>42758.3</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AD3">
         <v>57350.8</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AE3">
         <v>132595</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AF3">
         <v>188247</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AG3">
         <v>79677.3</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AH3">
         <v>45550.1</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AI3">
         <v>58747.4</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AJ3">
         <v>18890.5</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AK3">
         <v>134311</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AL3">
         <v>96979</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AM3">
         <v>13096.1</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AN3">
         <v>86955</v>
       </c>
-      <c r="AO3" s="0" t="n">
+      <c r="AO3">
         <v>262311</v>
       </c>
-      <c r="AP3" s="0" t="n">
+      <c r="AP3">
         <v>922959</v>
       </c>
-      <c r="AQ3" s="0" t="n">
+      <c r="AQ3">
         <v>198316</v>
       </c>
-      <c r="AR3" s="0" t="n">
+      <c r="AR3">
         <v>19704</v>
       </c>
-      <c r="AS3" s="0" t="n">
+      <c r="AS3">
         <v>57819.3</v>
       </c>
-      <c r="AT3" s="0" t="n">
+      <c r="AT3">
         <v>717327</v>
       </c>
-      <c r="AU3" s="0" t="n">
+      <c r="AU3">
         <v>27245.1</v>
       </c>
-      <c r="AV3" s="0" t="n">
+      <c r="AV3">
         <v>611643</v>
       </c>
-      <c r="AW3" s="0" t="n">
+      <c r="AW3">
         <v>712398</v>
       </c>
-      <c r="AX3" s="0" t="n">
+      <c r="AX3">
         <v>539003</v>
       </c>
-      <c r="AY3" s="0" t="n">
+      <c r="AY3">
         <v>29322.7</v>
       </c>
-      <c r="AZ3" s="0" t="n">
+      <c r="AZ3">
         <v>185007</v>
       </c>
-      <c r="BA3" s="0" t="n">
+      <c r="BA3">
         <v>233023</v>
       </c>
-      <c r="BB3" s="0" t="n">
+      <c r="BB3">
         <v>208933</v>
       </c>
-      <c r="BC3" s="0" t="n">
+      <c r="BC3">
         <v>164866</v>
       </c>
-      <c r="BD3" s="0" t="n">
+      <c r="BD3">
         <v>53139.8</v>
       </c>
-      <c r="BE3" s="0" t="n">
-        <v>37603.2</v>
-      </c>
-      <c r="BF3" s="0" t="n">
+      <c r="BE3">
+        <v>37603.199999999997</v>
+      </c>
+      <c r="BF3">
         <v>119420</v>
       </c>
-      <c r="BG3" s="0" t="n">
+      <c r="BG3">
         <v>30697.4</v>
       </c>
-      <c r="BH3" s="0" t="n">
+      <c r="BH3">
         <v>230058</v>
       </c>
-      <c r="BI3" s="0" t="n">
+      <c r="BI3">
         <v>324890</v>
       </c>
-      <c r="BJ3" s="0" t="n">
+      <c r="BJ3">
         <v>157980</v>
       </c>
-      <c r="BK3" s="0" t="n">
+      <c r="BK3">
         <v>168046</v>
       </c>
-      <c r="BL3" s="0" t="n">
+      <c r="BL3">
         <v>160785</v>
       </c>
-      <c r="BM3" s="0" t="n">
+      <c r="BM3">
         <v>471794</v>
       </c>
-      <c r="BN3" s="0" t="n">
+      <c r="BN3">
         <v>407315</v>
       </c>
-      <c r="BO3" s="0" t="n">
+      <c r="BO3">
         <v>164185</v>
       </c>
-      <c r="BP3" s="0" t="n">
+      <c r="BP3">
         <v>266642</v>
       </c>
-      <c r="BQ3" s="0" t="n">
+      <c r="BQ3">
         <v>63777.4</v>
       </c>
-      <c r="BR3" s="0" t="n">
+      <c r="BR3">
         <v>84307.4</v>
       </c>
-      <c r="BS3" s="0" t="n">
+      <c r="BS3">
         <v>364834</v>
       </c>
-      <c r="BT3" s="0" t="n">
+      <c r="BT3">
         <v>204984</v>
       </c>
-      <c r="BU3" s="0" t="n">
+      <c r="BU3">
         <v>34835.1</v>
       </c>
-      <c r="BV3" s="0" t="n">
+      <c r="BV3">
         <v>71020</v>
       </c>
-      <c r="BW3" s="0" t="n">
-        <v>81867.1</v>
-      </c>
-      <c r="BX3" s="0" t="n">
+      <c r="BW3">
+        <v>81867.100000000006</v>
+      </c>
+      <c r="BX3">
         <v>153370</v>
       </c>
-      <c r="BY3" s="0" t="n">
+      <c r="BY3">
         <v>186612</v>
       </c>
-      <c r="BZ3" s="0" t="n">
+      <c r="BZ3">
         <v>550239</v>
       </c>
-      <c r="CA3" s="0" t="n">
+      <c r="CA3">
         <v>450866</v>
       </c>
-      <c r="CB3" s="0" t="n">
+      <c r="CB3">
         <v>317932</v>
       </c>
-      <c r="CC3" s="0" t="n">
+      <c r="CC3">
         <v>15755.8</v>
       </c>
-      <c r="CD3" s="0" t="n">
+      <c r="CD3">
         <v>210131</v>
       </c>
-      <c r="CE3" s="0" t="n">
+      <c r="CE3">
         <v>393182</v>
       </c>
-      <c r="CF3" s="0" t="n">
+      <c r="CF3">
         <v>9621.42</v>
       </c>
-      <c r="CG3" s="0" t="n">
+      <c r="CG3">
         <v>189714</v>
       </c>
-      <c r="CH3" s="0" t="n">
+      <c r="CH3">
         <v>451216</v>
       </c>
-      <c r="CI3" s="0" t="n">
+      <c r="CI3">
         <v>6686.68</v>
       </c>
-      <c r="CJ3" s="0" t="n">
+      <c r="CJ3">
         <v>168783</v>
       </c>
-      <c r="CK3" s="0" t="n">
+      <c r="CK3">
         <v>945138</v>
       </c>
-      <c r="CL3" s="0" t="n">
+      <c r="CL3">
         <v>355549</v>
       </c>
-      <c r="CM3" s="0" t="n">
+      <c r="CM3">
         <v>55902.3</v>
       </c>
-      <c r="CN3" s="0" t="n">
+      <c r="CN3">
         <v>784124</v>
       </c>
-      <c r="CO3" s="0" t="n">
+      <c r="CO3">
         <v>178762</v>
       </c>
-      <c r="CP3" s="0" t="n">
+      <c r="CP3">
         <v>606618</v>
       </c>
-      <c r="CQ3" s="0" t="n">
+      <c r="CQ3">
         <v>613429</v>
       </c>
-      <c r="CR3" s="0" t="n">
+      <c r="CR3">
         <v>27007.7</v>
       </c>
-      <c r="CS3" s="0" t="n">
+      <c r="CS3">
         <v>641995</v>
       </c>
-      <c r="CT3" s="0" t="n">
+      <c r="CT3">
         <v>648719</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>179962</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>64423.5</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>179190</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>220019</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>224740</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>55399.3</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>8942.56</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>46511.3</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>229667</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>19571.5</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>14659.3</v>
       </c>
-      <c r="M4" s="0" t="n">
-        <v>53362.4</v>
-      </c>
-      <c r="N4" s="0" t="n">
+      <c r="M4">
+        <v>53362.400000000001</v>
+      </c>
+      <c r="N4">
         <v>3013.34</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>46600.6</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>60016</v>
       </c>
-      <c r="Q4" s="0" t="n">
-        <v>30593.2</v>
-      </c>
-      <c r="R4" s="0" t="n">
+      <c r="Q4">
+        <v>30593.200000000001</v>
+      </c>
+      <c r="R4">
         <v>11163.8</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4">
         <v>16428.8</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4">
         <v>29739.8</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="U4">
         <v>80043.8</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4">
         <v>72998.5</v>
       </c>
-      <c r="W4" s="0" t="n">
-        <v>99604.8</v>
-      </c>
-      <c r="X4" s="0" t="n">
+      <c r="W4">
+        <v>99604.800000000003</v>
+      </c>
+      <c r="X4">
         <v>26531.9</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Y4">
         <v>100060</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="Z4">
         <v>43394.1</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AA4">
         <v>12329.5</v>
       </c>
-      <c r="AB4" s="0" t="n">
-        <v>41772.4</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <v>44294.4</v>
-      </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AB4">
+        <v>41772.400000000001</v>
+      </c>
+      <c r="AC4">
+        <v>44294.400000000001</v>
+      </c>
+      <c r="AD4">
         <v>58127</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AE4">
         <v>133870</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AF4">
         <v>188329</v>
       </c>
-      <c r="AG4" s="0" t="n">
-        <v>82375.2</v>
-      </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AG4">
+        <v>82375.199999999997</v>
+      </c>
+      <c r="AH4">
         <v>46675.4</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AI4">
         <v>60344.4</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AJ4">
         <v>19771.2</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AK4">
         <v>135781</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AL4">
         <v>98411</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AM4">
         <v>13981.9</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AN4">
         <v>89382</v>
       </c>
-      <c r="AO4" s="0" t="n">
+      <c r="AO4">
         <v>275088</v>
       </c>
-      <c r="AP4" s="0" t="n">
+      <c r="AP4">
         <v>924378</v>
       </c>
-      <c r="AQ4" s="0" t="n">
+      <c r="AQ4">
         <v>210670</v>
       </c>
-      <c r="AR4" s="0" t="n">
+      <c r="AR4">
         <v>21291</v>
       </c>
-      <c r="AS4" s="0" t="n">
+      <c r="AS4">
         <v>63058.8</v>
       </c>
-      <c r="AT4" s="0" t="n">
+      <c r="AT4">
         <v>724520</v>
       </c>
-      <c r="AU4" s="0" t="n">
+      <c r="AU4">
         <v>29791.9</v>
       </c>
-      <c r="AV4" s="0" t="n">
+      <c r="AV4">
         <v>622480</v>
       </c>
-      <c r="AW4" s="0" t="n">
+      <c r="AW4">
         <v>720649</v>
       </c>
-      <c r="AX4" s="0" t="n">
+      <c r="AX4">
         <v>548125</v>
       </c>
-      <c r="AY4" s="0" t="n">
+      <c r="AY4">
         <v>30482</v>
       </c>
-      <c r="AZ4" s="0" t="n">
+      <c r="AZ4">
         <v>186906</v>
       </c>
-      <c r="BA4" s="0" t="n">
+      <c r="BA4">
         <v>233611</v>
       </c>
-      <c r="BB4" s="0" t="n">
+      <c r="BB4">
         <v>210428</v>
       </c>
-      <c r="BC4" s="0" t="n">
+      <c r="BC4">
         <v>167408</v>
       </c>
-      <c r="BD4" s="0" t="n">
-        <v>55303.2</v>
-      </c>
-      <c r="BE4" s="0" t="n">
-        <v>39193.3</v>
-      </c>
-      <c r="BF4" s="0" t="n">
+      <c r="BD4">
+        <v>55303.199999999997</v>
+      </c>
+      <c r="BE4">
+        <v>39193.300000000003</v>
+      </c>
+      <c r="BF4">
         <v>122807</v>
       </c>
-      <c r="BG4" s="0" t="n">
+      <c r="BG4">
         <v>32644.6</v>
       </c>
-      <c r="BH4" s="0" t="n">
+      <c r="BH4">
         <v>234599</v>
       </c>
-      <c r="BI4" s="0" t="n">
+      <c r="BI4">
         <v>329694</v>
       </c>
-      <c r="BJ4" s="0" t="n">
+      <c r="BJ4">
         <v>161684</v>
       </c>
-      <c r="BK4" s="0" t="n">
+      <c r="BK4">
         <v>169460</v>
       </c>
-      <c r="BL4" s="0" t="n">
+      <c r="BL4">
         <v>167244</v>
       </c>
-      <c r="BM4" s="0" t="n">
+      <c r="BM4">
         <v>472746</v>
       </c>
-      <c r="BN4" s="0" t="n">
+      <c r="BN4">
         <v>409529</v>
       </c>
-      <c r="BO4" s="0" t="n">
+      <c r="BO4">
         <v>170173</v>
       </c>
-      <c r="BP4" s="0" t="n">
+      <c r="BP4">
         <v>269332</v>
       </c>
-      <c r="BQ4" s="0" t="n">
-        <v>65999.4</v>
-      </c>
-      <c r="BR4" s="0" t="n">
+      <c r="BQ4">
+        <v>65999.399999999994</v>
+      </c>
+      <c r="BR4">
         <v>90594.3</v>
       </c>
-      <c r="BS4" s="0" t="n">
+      <c r="BS4">
         <v>370932</v>
       </c>
-      <c r="BT4" s="0" t="n">
+      <c r="BT4">
         <v>210709</v>
       </c>
-      <c r="BU4" s="0" t="n">
-        <v>37217.8</v>
-      </c>
-      <c r="BV4" s="0" t="n">
-        <v>76444.8</v>
-      </c>
-      <c r="BW4" s="0" t="n">
+      <c r="BU4">
+        <v>37217.800000000003</v>
+      </c>
+      <c r="BV4">
+        <v>76444.800000000003</v>
+      </c>
+      <c r="BW4">
         <v>85941.9</v>
       </c>
-      <c r="BX4" s="0" t="n">
+      <c r="BX4">
         <v>160051</v>
       </c>
-      <c r="BY4" s="0" t="n">
+      <c r="BY4">
         <v>192735</v>
       </c>
-      <c r="BZ4" s="0" t="n">
+      <c r="BZ4">
         <v>555008</v>
       </c>
-      <c r="CA4" s="0" t="n">
+      <c r="CA4">
         <v>456043</v>
       </c>
-      <c r="CB4" s="0" t="n">
+      <c r="CB4">
         <v>321690</v>
       </c>
-      <c r="CC4" s="0" t="n">
+      <c r="CC4">
         <v>17240.5</v>
       </c>
-      <c r="CD4" s="0" t="n">
+      <c r="CD4">
         <v>214418</v>
       </c>
-      <c r="CE4" s="0" t="n">
+      <c r="CE4">
         <v>397104</v>
       </c>
-      <c r="CF4" s="0" t="n">
-        <v>10350.3</v>
-      </c>
-      <c r="CG4" s="0" t="n">
+      <c r="CF4">
+        <v>10350.299999999999</v>
+      </c>
+      <c r="CG4">
         <v>193623</v>
       </c>
-      <c r="CH4" s="0" t="n">
+      <c r="CH4">
         <v>454191</v>
       </c>
-      <c r="CI4" s="0" t="n">
+      <c r="CI4">
         <v>7004.76</v>
       </c>
-      <c r="CJ4" s="0" t="n">
+      <c r="CJ4">
         <v>172407</v>
       </c>
-      <c r="CK4" s="0" t="n">
+      <c r="CK4">
         <v>949983</v>
       </c>
-      <c r="CL4" s="0" t="n">
+      <c r="CL4">
         <v>365362</v>
       </c>
-      <c r="CM4" s="0" t="n">
+      <c r="CM4">
         <v>60676.4</v>
       </c>
-      <c r="CN4" s="0" t="n">
+      <c r="CN4">
         <v>789710</v>
       </c>
-      <c r="CO4" s="0" t="n">
+      <c r="CO4">
         <v>185652</v>
       </c>
-      <c r="CP4" s="0" t="n">
+      <c r="CP4">
         <v>617183</v>
       </c>
-      <c r="CQ4" s="0" t="n">
+      <c r="CQ4">
         <v>624403</v>
       </c>
-      <c r="CR4" s="0" t="n">
+      <c r="CR4">
         <v>28849.8</v>
       </c>
-      <c r="CS4" s="0" t="n">
+      <c r="CS4">
         <v>655117</v>
       </c>
-      <c r="CT4" s="0" t="n">
+      <c r="CT4">
         <v>657219</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>182598</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>68553.5</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>181668</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>220862</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>225711</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>60179.6</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>9700.44</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>49838.3</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>230680</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>20463.1</v>
-      </c>
-      <c r="L5" s="0" t="n">
+      <c r="K5">
+        <v>20463.099999999999</v>
+      </c>
+      <c r="L5">
         <v>15439.1</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>53805.7</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>3246.22</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5">
         <v>47214.5</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>60284.4</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>31561.7</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>12303.6</v>
       </c>
-      <c r="S5" s="0" t="n">
-        <v>17253.6</v>
-      </c>
-      <c r="T5" s="0" t="n">
+      <c r="S5">
+        <v>17253.599999999999</v>
+      </c>
+      <c r="T5">
         <v>30728.7</v>
       </c>
-      <c r="U5" s="0" t="n">
-        <v>81911.2</v>
-      </c>
-      <c r="V5" s="0" t="n">
+      <c r="U5">
+        <v>81911.199999999997</v>
+      </c>
+      <c r="V5">
         <v>75064.7</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5">
         <v>100076</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5">
         <v>28062</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5">
         <v>101329</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5">
         <v>46033.7</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AA5">
         <v>13145.7</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AB5">
         <v>43337.5</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AC5">
         <v>46606.9</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AD5">
         <v>59968.1</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AE5">
         <v>135729</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AF5">
         <v>188497</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AG5">
         <v>84870.5</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AH5">
         <v>49096.9</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AI5">
         <v>62697.5</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AJ5">
         <v>22061.9</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AK5">
         <v>137508</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AL5">
         <v>100548</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AM5">
         <v>14939.1</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AN5">
         <v>92553.7</v>
       </c>
-      <c r="AO5" s="0" t="n">
+      <c r="AO5">
         <v>291570</v>
       </c>
-      <c r="AP5" s="0" t="n">
+      <c r="AP5">
         <v>927226</v>
       </c>
-      <c r="AQ5" s="0" t="n">
+      <c r="AQ5">
         <v>221803</v>
       </c>
-      <c r="AR5" s="0" t="n">
+      <c r="AR5">
         <v>23274.9</v>
       </c>
-      <c r="AS5" s="0" t="n">
-        <v>69857.9</v>
-      </c>
-      <c r="AT5" s="0" t="n">
+      <c r="AS5">
+        <v>69857.899999999994</v>
+      </c>
+      <c r="AT5">
         <v>733824</v>
       </c>
-      <c r="AU5" s="0" t="n">
-        <v>33381.8</v>
-      </c>
-      <c r="AV5" s="0" t="n">
+      <c r="AU5">
+        <v>33381.800000000003</v>
+      </c>
+      <c r="AV5">
         <v>634734</v>
       </c>
-      <c r="AW5" s="0" t="n">
+      <c r="AW5">
         <v>734225</v>
       </c>
-      <c r="AX5" s="0" t="n">
+      <c r="AX5">
         <v>565084</v>
       </c>
-      <c r="AY5" s="0" t="n">
-        <v>32798.4</v>
-      </c>
-      <c r="AZ5" s="0" t="n">
+      <c r="AY5">
+        <v>32798.400000000001</v>
+      </c>
+      <c r="AZ5">
         <v>189583</v>
       </c>
-      <c r="BA5" s="0" t="n">
+      <c r="BA5">
         <v>234564</v>
       </c>
-      <c r="BB5" s="0" t="n">
+      <c r="BB5">
         <v>211889</v>
       </c>
-      <c r="BC5" s="0" t="n">
+      <c r="BC5">
         <v>170925</v>
       </c>
-      <c r="BD5" s="0" t="n">
+      <c r="BD5">
         <v>58739</v>
       </c>
-      <c r="BE5" s="0" t="n">
+      <c r="BE5">
         <v>41813</v>
       </c>
-      <c r="BF5" s="0" t="n">
+      <c r="BF5">
         <v>126943</v>
       </c>
-      <c r="BG5" s="0" t="n">
+      <c r="BG5">
         <v>35308.9</v>
       </c>
-      <c r="BH5" s="0" t="n">
+      <c r="BH5">
         <v>242464</v>
       </c>
-      <c r="BI5" s="0" t="n">
+      <c r="BI5">
         <v>335304</v>
       </c>
-      <c r="BJ5" s="0" t="n">
+      <c r="BJ5">
         <v>169949</v>
       </c>
-      <c r="BK5" s="0" t="n">
+      <c r="BK5">
         <v>177751</v>
       </c>
-      <c r="BL5" s="0" t="n">
+      <c r="BL5">
         <v>176711</v>
       </c>
-      <c r="BM5" s="0" t="n">
+      <c r="BM5">
         <v>474199</v>
       </c>
-      <c r="BN5" s="0" t="n">
+      <c r="BN5">
         <v>412939</v>
       </c>
-      <c r="BO5" s="0" t="n">
+      <c r="BO5">
         <v>176848</v>
       </c>
-      <c r="BP5" s="0" t="n">
+      <c r="BP5">
         <v>277213</v>
       </c>
-      <c r="BQ5" s="0" t="n">
-        <v>71951.9</v>
-      </c>
-      <c r="BR5" s="0" t="n">
+      <c r="BQ5">
+        <v>71951.899999999994</v>
+      </c>
+      <c r="BR5">
         <v>98448.6</v>
       </c>
-      <c r="BS5" s="0" t="n">
+      <c r="BS5">
         <v>381523</v>
       </c>
-      <c r="BT5" s="0" t="n">
+      <c r="BT5">
         <v>220308</v>
       </c>
-      <c r="BU5" s="0" t="n">
+      <c r="BU5">
         <v>42271</v>
       </c>
-      <c r="BV5" s="0" t="n">
-        <v>82956.4</v>
-      </c>
-      <c r="BW5" s="0" t="n">
+      <c r="BV5">
+        <v>82956.399999999994</v>
+      </c>
+      <c r="BW5">
         <v>96142.7</v>
       </c>
-      <c r="BX5" s="0" t="n">
+      <c r="BX5">
         <v>169322</v>
       </c>
-      <c r="BY5" s="0" t="n">
+      <c r="BY5">
         <v>202478</v>
       </c>
-      <c r="BZ5" s="0" t="n">
+      <c r="BZ5">
         <v>561075</v>
       </c>
-      <c r="CA5" s="0" t="n">
+      <c r="CA5">
         <v>464389</v>
       </c>
-      <c r="CB5" s="0" t="n">
+      <c r="CB5">
         <v>328887</v>
       </c>
-      <c r="CC5" s="0" t="n">
-        <v>18340.9</v>
-      </c>
-      <c r="CD5" s="0" t="n">
+      <c r="CC5">
+        <v>18340.900000000001</v>
+      </c>
+      <c r="CD5">
         <v>221700</v>
       </c>
-      <c r="CE5" s="0" t="n">
+      <c r="CE5">
         <v>403436</v>
       </c>
-      <c r="CF5" s="0" t="n">
+      <c r="CF5">
         <v>11641</v>
       </c>
-      <c r="CG5" s="0" t="n">
+      <c r="CG5">
         <v>201748</v>
       </c>
-      <c r="CH5" s="0" t="n">
+      <c r="CH5">
         <v>458153</v>
       </c>
-      <c r="CI5" s="0" t="n">
+      <c r="CI5">
         <v>7769.34</v>
       </c>
-      <c r="CJ5" s="0" t="n">
+      <c r="CJ5">
         <v>181715</v>
       </c>
-      <c r="CK5" s="0" t="n">
+      <c r="CK5">
         <v>957535</v>
       </c>
-      <c r="CL5" s="0" t="n">
+      <c r="CL5">
         <v>383265</v>
       </c>
-      <c r="CM5" s="0" t="n">
-        <v>67626.9</v>
-      </c>
-      <c r="CN5" s="0" t="n">
+      <c r="CM5">
+        <v>67626.899999999994</v>
+      </c>
+      <c r="CN5">
         <v>803289</v>
       </c>
-      <c r="CO5" s="0" t="n">
+      <c r="CO5">
         <v>200852</v>
       </c>
-      <c r="CP5" s="0" t="n">
+      <c r="CP5">
         <v>629335</v>
       </c>
-      <c r="CQ5" s="0" t="n">
+      <c r="CQ5">
         <v>641106</v>
       </c>
-      <c r="CR5" s="0" t="n">
+      <c r="CR5">
         <v>32490.1</v>
       </c>
-      <c r="CS5" s="0" t="n">
+      <c r="CS5">
         <v>666501</v>
       </c>
-      <c r="CT5" s="0" t="n">
+      <c r="CT5">
         <v>673567</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>186579</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>74648.9</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6">
+        <v>74648.899999999994</v>
+      </c>
+      <c r="D6">
         <v>184345</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>222041</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>227189</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>65497.3</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>10060.7</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="H6">
+        <v>10060.700000000001</v>
+      </c>
+      <c r="I6">
         <v>55189.1</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>231466</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>22092.1</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>16714.7</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>54743.7</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>3543.68</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>48027</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>60742.9</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6">
         <v>33213.9</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>13518.4</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>18681.7</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6">
         <v>32128.7</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6">
         <v>84397.5</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6">
         <v>78146.5</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="W6">
         <v>101712</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6">
         <v>31129.5</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Y6">
         <v>102489</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="Z6">
         <v>49744.2</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AA6">
         <v>14589.3</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AB6">
         <v>46445.8</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AC6">
         <v>48819.6</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AD6">
         <v>62774.3</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AE6">
         <v>138401</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AF6">
         <v>188619</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AG6">
         <v>88640.4</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AH6">
         <v>53795.6</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AI6">
         <v>66167.7</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AJ6">
         <v>25051.7</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AK6">
         <v>140011</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AL6">
         <v>103925</v>
       </c>
-      <c r="AM6" s="0" t="n">
-        <v>17691.6</v>
-      </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AM6">
+        <v>17691.599999999999</v>
+      </c>
+      <c r="AN6">
         <v>97018.4</v>
       </c>
-      <c r="AO6" s="0" t="n">
+      <c r="AO6">
         <v>317232</v>
       </c>
-      <c r="AP6" s="0" t="n">
+      <c r="AP6">
         <v>932356</v>
       </c>
-      <c r="AQ6" s="0" t="n">
+      <c r="AQ6">
         <v>247093</v>
       </c>
-      <c r="AR6" s="0" t="n">
+      <c r="AR6">
         <v>27230.3</v>
       </c>
-      <c r="AS6" s="0" t="n">
+      <c r="AS6">
         <v>84295.3</v>
       </c>
-      <c r="AT6" s="0" t="n">
+      <c r="AT6">
         <v>750222</v>
       </c>
-      <c r="AU6" s="0" t="n">
+      <c r="AU6">
         <v>37160</v>
       </c>
-      <c r="AV6" s="0" t="n">
+      <c r="AV6">
         <v>654551</v>
       </c>
-      <c r="AW6" s="0" t="n">
+      <c r="AW6">
         <v>752301</v>
       </c>
-      <c r="AX6" s="0" t="n">
+      <c r="AX6">
         <v>584499</v>
       </c>
-      <c r="AY6" s="0" t="n">
+      <c r="AY6">
         <v>37852.6</v>
       </c>
-      <c r="AZ6" s="0" t="n">
+      <c r="AZ6">
         <v>193252</v>
       </c>
-      <c r="BA6" s="0" t="n">
+      <c r="BA6">
         <v>236152</v>
       </c>
-      <c r="BB6" s="0" t="n">
+      <c r="BB6">
         <v>214682</v>
       </c>
-      <c r="BC6" s="0" t="n">
+      <c r="BC6">
         <v>175055</v>
       </c>
-      <c r="BD6" s="0" t="n">
-        <v>64693.6</v>
-      </c>
-      <c r="BE6" s="0" t="n">
+      <c r="BD6">
+        <v>64693.599999999999</v>
+      </c>
+      <c r="BE6">
         <v>47579.3</v>
       </c>
-      <c r="BF6" s="0" t="n">
+      <c r="BF6">
         <v>132666</v>
       </c>
-      <c r="BG6" s="0" t="n">
-        <v>40082.3</v>
-      </c>
-      <c r="BH6" s="0" t="n">
+      <c r="BG6">
+        <v>40082.300000000003</v>
+      </c>
+      <c r="BH6">
         <v>252700</v>
       </c>
-      <c r="BI6" s="0" t="n">
+      <c r="BI6">
         <v>345738</v>
       </c>
-      <c r="BJ6" s="0" t="n">
+      <c r="BJ6">
         <v>180728</v>
       </c>
-      <c r="BK6" s="0" t="n">
+      <c r="BK6">
         <v>190101</v>
       </c>
-      <c r="BL6" s="0" t="n">
+      <c r="BL6">
         <v>191105</v>
       </c>
-      <c r="BM6" s="0" t="n">
+      <c r="BM6">
         <v>476000</v>
       </c>
-      <c r="BN6" s="0" t="n">
+      <c r="BN6">
         <v>416466</v>
       </c>
-      <c r="BO6" s="0" t="n">
+      <c r="BO6">
         <v>187811</v>
       </c>
-      <c r="BP6" s="0" t="n">
+      <c r="BP6">
         <v>288699</v>
       </c>
-      <c r="BQ6" s="0" t="n">
+      <c r="BQ6">
         <v>82207.3</v>
       </c>
-      <c r="BR6" s="0" t="n">
+      <c r="BR6">
         <v>112315</v>
       </c>
-      <c r="BS6" s="0" t="n">
+      <c r="BS6">
         <v>402050</v>
       </c>
-      <c r="BT6" s="0" t="n">
+      <c r="BT6">
         <v>237308</v>
       </c>
-      <c r="BU6" s="0" t="n">
+      <c r="BU6">
         <v>50907.4</v>
       </c>
-      <c r="BV6" s="0" t="n">
+      <c r="BV6">
         <v>95762</v>
       </c>
-      <c r="BW6" s="0" t="n">
+      <c r="BW6">
         <v>108751</v>
       </c>
-      <c r="BX6" s="0" t="n">
+      <c r="BX6">
         <v>187908</v>
       </c>
-      <c r="BY6" s="0" t="n">
+      <c r="BY6">
         <v>221856</v>
       </c>
-      <c r="BZ6" s="0" t="n">
+      <c r="BZ6">
         <v>573421</v>
       </c>
-      <c r="CA6" s="0" t="n">
+      <c r="CA6">
         <v>479436</v>
       </c>
-      <c r="CB6" s="0" t="n">
+      <c r="CB6">
         <v>340640</v>
       </c>
-      <c r="CC6" s="0" t="n">
+      <c r="CC6">
         <v>22710.6</v>
       </c>
-      <c r="CD6" s="0" t="n">
+      <c r="CD6">
         <v>234253</v>
       </c>
-      <c r="CE6" s="0" t="n">
+      <c r="CE6">
         <v>413125</v>
       </c>
-      <c r="CF6" s="0" t="n">
+      <c r="CF6">
         <v>13441.6</v>
       </c>
-      <c r="CG6" s="0" t="n">
+      <c r="CG6">
         <v>216295</v>
       </c>
-      <c r="CH6" s="0" t="n">
+      <c r="CH6">
         <v>464496</v>
       </c>
-      <c r="CI6" s="0" t="n">
-        <v>8737.3</v>
-      </c>
-      <c r="CJ6" s="0" t="n">
+      <c r="CI6">
+        <v>8737.2999999999993</v>
+      </c>
+      <c r="CJ6">
         <v>196553</v>
       </c>
-      <c r="CK6" s="0" t="n">
+      <c r="CK6">
         <v>966765</v>
       </c>
-      <c r="CL6" s="0" t="n">
+      <c r="CL6">
         <v>413083</v>
       </c>
-      <c r="CM6" s="0" t="n">
+      <c r="CM6">
         <v>78490.7</v>
       </c>
-      <c r="CN6" s="0" t="n">
+      <c r="CN6">
         <v>821325</v>
       </c>
-      <c r="CO6" s="0" t="n">
+      <c r="CO6">
         <v>231004</v>
       </c>
-      <c r="CP6" s="0" t="n">
+      <c r="CP6">
         <v>653457</v>
       </c>
-      <c r="CQ6" s="0" t="n">
+      <c r="CQ6">
         <v>668902</v>
       </c>
-      <c r="CR6" s="0" t="n">
-        <v>37613.8</v>
-      </c>
-      <c r="CS6" s="0" t="n">
+      <c r="CR6">
+        <v>37613.800000000003</v>
+      </c>
+      <c r="CS6">
         <v>692403</v>
       </c>
-      <c r="CT6" s="0" t="n">
+      <c r="CT6">
         <v>692327</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>190143</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>83661</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>186711</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>225371</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>231199</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>75029.7</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>10179.5</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>62184.7</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>237049</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>25721.1</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>18909</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>55229.7</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>3612.94</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>48576.9</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>62542.8</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>37533.4</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>14648.9</v>
       </c>
-      <c r="S7" s="0" t="n">
-        <v>20768.6</v>
-      </c>
-      <c r="T7" s="0" t="n">
+      <c r="S7">
+        <v>20768.599999999999</v>
+      </c>
+      <c r="T7">
         <v>36098.1</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7">
         <v>88788.5</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7">
         <v>84373.8</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7">
         <v>103430</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7">
         <v>34272.1</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Y7">
         <v>103027</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="Z7">
         <v>58037.4</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AA7">
         <v>15535.5</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AB7">
         <v>54237.4</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AC7">
         <v>55811.6</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AD7">
         <v>70520</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AE7">
         <v>139904</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AF7">
         <v>192165</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AG7">
         <v>102842</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AH7">
         <v>62560.2</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AI7">
         <v>77166.2</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AJ7">
         <v>27105.8</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AK7">
         <v>142312</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AL7">
         <v>116295</v>
       </c>
-      <c r="AM7" s="0" t="n">
-        <v>19441.6</v>
-      </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AM7">
+        <v>19441.599999999999</v>
+      </c>
+      <c r="AN7">
         <v>108148</v>
       </c>
-      <c r="AO7" s="0" t="n">
+      <c r="AO7">
         <v>350326</v>
       </c>
-      <c r="AP7" s="0" t="n">
+      <c r="AP7">
         <v>940512</v>
       </c>
-      <c r="AQ7" s="0" t="n">
+      <c r="AQ7">
         <v>265919</v>
       </c>
-      <c r="AR7" s="0" t="n">
+      <c r="AR7">
         <v>28519.8</v>
       </c>
-      <c r="AS7" s="0" t="n">
+      <c r="AS7">
         <v>90523.9</v>
       </c>
-      <c r="AT7" s="0" t="n">
+      <c r="AT7">
         <v>758982</v>
       </c>
-      <c r="AU7" s="0" t="n">
-        <v>39282.8</v>
-      </c>
-      <c r="AV7" s="0" t="n">
+      <c r="AU7">
+        <v>39282.800000000003</v>
+      </c>
+      <c r="AV7">
         <v>671483</v>
       </c>
-      <c r="AW7" s="0" t="n">
+      <c r="AW7">
         <v>764101</v>
       </c>
-      <c r="AX7" s="0" t="n">
+      <c r="AX7">
         <v>617790</v>
       </c>
-      <c r="AY7" s="0" t="n">
+      <c r="AY7">
         <v>40097.1</v>
       </c>
-      <c r="AZ7" s="0" t="n">
+      <c r="AZ7">
         <v>195384</v>
       </c>
-      <c r="BA7" s="0" t="n">
+      <c r="BA7">
         <v>239584</v>
       </c>
-      <c r="BB7" s="0" t="n">
+      <c r="BB7">
         <v>215760</v>
       </c>
-      <c r="BC7" s="0" t="n">
+      <c r="BC7">
         <v>179331</v>
       </c>
-      <c r="BD7" s="0" t="n">
+      <c r="BD7">
         <v>70953.8</v>
       </c>
-      <c r="BE7" s="0" t="n">
+      <c r="BE7">
         <v>50303.6</v>
       </c>
-      <c r="BF7" s="0" t="n">
+      <c r="BF7">
         <v>143501</v>
       </c>
-      <c r="BG7" s="0" t="n">
+      <c r="BG7">
         <v>42345.2</v>
       </c>
-      <c r="BH7" s="0" t="n">
+      <c r="BH7">
         <v>276599</v>
       </c>
-      <c r="BI7" s="0" t="n">
+      <c r="BI7">
         <v>353398</v>
       </c>
-      <c r="BJ7" s="0" t="n">
+      <c r="BJ7">
         <v>200212</v>
       </c>
-      <c r="BK7" s="0" t="n">
+      <c r="BK7">
         <v>211678</v>
       </c>
-      <c r="BL7" s="0" t="n">
+      <c r="BL7">
         <v>211743</v>
       </c>
-      <c r="BM7" s="0" t="n">
+      <c r="BM7">
         <v>480776</v>
       </c>
-      <c r="BN7" s="0" t="n">
+      <c r="BN7">
         <v>417782</v>
       </c>
-      <c r="BO7" s="0" t="n">
+      <c r="BO7">
         <v>207600</v>
       </c>
-      <c r="BP7" s="0" t="n">
+      <c r="BP7">
         <v>305936</v>
       </c>
-      <c r="BQ7" s="0" t="n">
+      <c r="BQ7">
         <v>87830.6</v>
       </c>
-      <c r="BR7" s="0" t="n">
+      <c r="BR7">
         <v>119951</v>
       </c>
-      <c r="BS7" s="0" t="n">
+      <c r="BS7">
         <v>435724</v>
       </c>
-      <c r="BT7" s="0" t="n">
+      <c r="BT7">
         <v>264254</v>
       </c>
-      <c r="BU7" s="0" t="n">
+      <c r="BU7">
         <v>55759.4</v>
       </c>
-      <c r="BV7" s="0" t="n">
+      <c r="BV7">
         <v>105503</v>
       </c>
-      <c r="BW7" s="0" t="n">
+      <c r="BW7">
         <v>117629</v>
       </c>
-      <c r="BX7" s="0" t="n">
+      <c r="BX7">
         <v>201281</v>
       </c>
-      <c r="BY7" s="0" t="n">
+      <c r="BY7">
         <v>242469</v>
       </c>
-      <c r="BZ7" s="0" t="n">
+      <c r="BZ7">
         <v>579787</v>
       </c>
-      <c r="CA7" s="0" t="n">
+      <c r="CA7">
         <v>497213</v>
       </c>
-      <c r="CB7" s="0" t="n">
+      <c r="CB7">
         <v>353961</v>
       </c>
-      <c r="CC7" s="0" t="n">
+      <c r="CC7">
         <v>24912.7</v>
       </c>
-      <c r="CD7" s="0" t="n">
+      <c r="CD7">
         <v>254240</v>
       </c>
-      <c r="CE7" s="0" t="n">
+      <c r="CE7">
         <v>418589</v>
       </c>
-      <c r="CF7" s="0" t="n">
+      <c r="CF7">
         <v>14146.5</v>
       </c>
-      <c r="CG7" s="0" t="n">
+      <c r="CG7">
         <v>235082</v>
       </c>
-      <c r="CH7" s="0" t="n">
+      <c r="CH7">
         <v>467085</v>
       </c>
-      <c r="CI7" s="0" t="n">
+      <c r="CI7">
         <v>8999.74</v>
       </c>
-      <c r="CJ7" s="0" t="n">
+      <c r="CJ7">
         <v>215318</v>
       </c>
-      <c r="CK7" s="0" t="n">
+      <c r="CK7">
         <v>971206</v>
       </c>
-      <c r="CL7" s="0" t="n">
+      <c r="CL7">
         <v>450458</v>
       </c>
-      <c r="CM7" s="0" t="n">
+      <c r="CM7">
         <v>84872.1</v>
       </c>
-      <c r="CN7" s="0" t="n">
+      <c r="CN7">
         <v>834715</v>
       </c>
-      <c r="CO7" s="0" t="n">
+      <c r="CO7">
         <v>246046</v>
       </c>
-      <c r="CP7" s="0" t="n">
+      <c r="CP7">
         <v>688563</v>
       </c>
-      <c r="CQ7" s="0" t="n">
+      <c r="CQ7">
         <v>697379</v>
       </c>
-      <c r="CR7" s="0" t="n">
-        <v>39854.3</v>
-      </c>
-      <c r="CS7" s="0" t="n">
+      <c r="CR7">
+        <v>39854.300000000003</v>
+      </c>
+      <c r="CS7">
         <v>717606</v>
       </c>
-      <c r="CT7" s="0" t="n">
+      <c r="CT7">
         <v>717984</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>192319</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>86491.8</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>188494</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>226579</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>232109</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>78144.5</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>10237.9</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>64978.1</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>237682</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>26287.1</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>19700.8</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>55746.3</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>3708.8</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>49232.2</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>62648.9</v>
       </c>
-      <c r="Q8" s="0" t="n">
-        <v>38089.2</v>
-      </c>
-      <c r="R8" s="0" t="n">
+      <c r="Q8">
+        <v>38089.199999999997</v>
+      </c>
+      <c r="R8">
         <v>15193</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>21400.7</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8">
         <v>37007.9</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8">
         <v>90094.9</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8">
         <v>86116.1</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8">
         <v>104537</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8">
         <v>35759</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8">
         <v>104007</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8">
         <v>59416.7</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AA8">
         <v>16139.1</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AB8">
         <v>55527.8</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AC8">
         <v>57078.7</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AD8">
         <v>71690.5</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AE8">
         <v>141881</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AF8">
         <v>192165</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AG8">
         <v>104982</v>
       </c>
-      <c r="AH8" s="0" t="n">
-        <v>65028.8</v>
-      </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AH8">
+        <v>65028.800000000003</v>
+      </c>
+      <c r="AI8">
         <v>79061.7</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AJ8">
         <v>27979.7</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AK8">
         <v>143664</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AL8">
         <v>117887</v>
       </c>
-      <c r="AM8" s="0" t="n">
+      <c r="AM8">
         <v>20287.7</v>
       </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AN8">
         <v>110372</v>
       </c>
-      <c r="AO8" s="0" t="n">
+      <c r="AO8">
         <v>362101</v>
       </c>
-      <c r="AP8" s="0" t="n">
+      <c r="AP8">
         <v>942376</v>
       </c>
-      <c r="AQ8" s="0" t="n">
+      <c r="AQ8">
         <v>280065</v>
       </c>
-      <c r="AR8" s="0" t="n">
-        <v>29233.2</v>
-      </c>
-      <c r="AS8" s="0" t="n">
+      <c r="AR8">
+        <v>29233.200000000001</v>
+      </c>
+      <c r="AS8">
         <v>97803.5</v>
       </c>
-      <c r="AT8" s="0" t="n">
+      <c r="AT8">
         <v>768378</v>
       </c>
-      <c r="AU8" s="0" t="n">
+      <c r="AU8">
         <v>40064</v>
       </c>
-      <c r="AV8" s="0" t="n">
+      <c r="AV8">
         <v>684689</v>
       </c>
-      <c r="AW8" s="0" t="n">
+      <c r="AW8">
         <v>773285</v>
       </c>
-      <c r="AX8" s="0" t="n">
+      <c r="AX8">
         <v>627895</v>
       </c>
-      <c r="AY8" s="0" t="n">
+      <c r="AY8">
         <v>44242.7</v>
       </c>
-      <c r="AZ8" s="0" t="n">
+      <c r="AZ8">
         <v>198027</v>
       </c>
-      <c r="BA8" s="0" t="n">
+      <c r="BA8">
         <v>240584</v>
       </c>
-      <c r="BB8" s="0" t="n">
+      <c r="BB8">
         <v>217720</v>
       </c>
-      <c r="BC8" s="0" t="n">
+      <c r="BC8">
         <v>182497</v>
       </c>
-      <c r="BD8" s="0" t="n">
-        <v>74073.4</v>
-      </c>
-      <c r="BE8" s="0" t="n">
+      <c r="BD8">
+        <v>74073.399999999994</v>
+      </c>
+      <c r="BE8">
         <v>54022.9</v>
       </c>
-      <c r="BF8" s="0" t="n">
+      <c r="BF8">
         <v>145845</v>
       </c>
-      <c r="BG8" s="0" t="n">
+      <c r="BG8">
         <v>45799.3</v>
       </c>
-      <c r="BH8" s="0" t="n">
+      <c r="BH8">
         <v>281175</v>
       </c>
-      <c r="BI8" s="0" t="n">
+      <c r="BI8">
         <v>359818</v>
       </c>
-      <c r="BJ8" s="0" t="n">
+      <c r="BJ8">
         <v>203472</v>
       </c>
-      <c r="BK8" s="0" t="n">
+      <c r="BK8">
         <v>216341</v>
       </c>
-      <c r="BL8" s="0" t="n">
+      <c r="BL8">
         <v>216646</v>
       </c>
-      <c r="BM8" s="0" t="n">
+      <c r="BM8">
         <v>481736</v>
       </c>
-      <c r="BN8" s="0" t="n">
+      <c r="BN8">
         <v>420804</v>
       </c>
-      <c r="BO8" s="0" t="n">
+      <c r="BO8">
         <v>212728</v>
       </c>
-      <c r="BP8" s="0" t="n">
+      <c r="BP8">
         <v>311499</v>
       </c>
-      <c r="BQ8" s="0" t="n">
-        <v>96547.2</v>
-      </c>
-      <c r="BR8" s="0" t="n">
+      <c r="BQ8">
+        <v>96547.199999999997</v>
+      </c>
+      <c r="BR8">
         <v>132362</v>
       </c>
-      <c r="BS8" s="0" t="n">
+      <c r="BS8">
         <v>441037</v>
       </c>
-      <c r="BT8" s="0" t="n">
+      <c r="BT8">
         <v>270429</v>
       </c>
-      <c r="BU8" s="0" t="n">
+      <c r="BU8">
         <v>60067.1</v>
       </c>
-      <c r="BV8" s="0" t="n">
+      <c r="BV8">
         <v>114585</v>
       </c>
-      <c r="BW8" s="0" t="n">
+      <c r="BW8">
         <v>129554</v>
       </c>
-      <c r="BX8" s="0" t="n">
+      <c r="BX8">
         <v>212336</v>
       </c>
-      <c r="BY8" s="0" t="n">
+      <c r="BY8">
         <v>251614</v>
       </c>
-      <c r="BZ8" s="0" t="n">
+      <c r="BZ8">
         <v>587761</v>
       </c>
-      <c r="CA8" s="0" t="n">
+      <c r="CA8">
         <v>505853</v>
       </c>
-      <c r="CB8" s="0" t="n">
+      <c r="CB8">
         <v>361493</v>
       </c>
-      <c r="CC8" s="0" t="n">
+      <c r="CC8">
         <v>27359.7</v>
       </c>
-      <c r="CD8" s="0" t="n">
+      <c r="CD8">
         <v>258533</v>
       </c>
-      <c r="CE8" s="0" t="n">
+      <c r="CE8">
         <v>425652</v>
       </c>
-      <c r="CF8" s="0" t="n">
+      <c r="CF8">
         <v>14700.4</v>
       </c>
-      <c r="CG8" s="0" t="n">
+      <c r="CG8">
         <v>239616</v>
       </c>
-      <c r="CH8" s="0" t="n">
+      <c r="CH8">
         <v>472097</v>
       </c>
-      <c r="CI8" s="0" t="n">
+      <c r="CI8">
         <v>9172.1</v>
       </c>
-      <c r="CJ8" s="0" t="n">
+      <c r="CJ8">
         <v>218791</v>
       </c>
-      <c r="CK8" s="0" t="n">
+      <c r="CK8">
         <v>977693</v>
       </c>
-      <c r="CL8" s="0" t="n">
+      <c r="CL8">
         <v>457080</v>
       </c>
-      <c r="CM8" s="0" t="n">
-        <v>95924.8</v>
-      </c>
-      <c r="CN8" s="0" t="n">
+      <c r="CM8">
+        <v>95924.800000000003</v>
+      </c>
+      <c r="CN8">
         <v>845119</v>
       </c>
-      <c r="CO8" s="0" t="n">
+      <c r="CO8">
         <v>264708</v>
       </c>
-      <c r="CP8" s="0" t="n">
+      <c r="CP8">
         <v>698917</v>
       </c>
-      <c r="CQ8" s="0" t="n">
+      <c r="CQ8">
         <v>709181</v>
       </c>
-      <c r="CR8" s="0" t="n">
+      <c r="CR8">
         <v>42349.9</v>
       </c>
-      <c r="CS8" s="0" t="n">
+      <c r="CS8">
         <v>728782</v>
       </c>
-      <c r="CT8" s="0" t="n">
+      <c r="CT8">
         <v>731439</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>40</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>203292</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>87098.5</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>202073</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>234935</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>239700</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>79623.8</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>10602.2</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>66307.9</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="I9">
+        <v>66307.899999999994</v>
+      </c>
+      <c r="J9">
         <v>241855</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>26357.1</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>20090.9</v>
-      </c>
-      <c r="M9" s="0" t="n">
+      <c r="L9">
+        <v>20090.900000000001</v>
+      </c>
+      <c r="M9">
         <v>56290.1</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>3960.44</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>52426.3</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>63297.1</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>38308.1</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9">
         <v>15737.3</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9">
         <v>21484.2</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9">
         <v>37544.9</v>
       </c>
-      <c r="U9" s="0" t="n">
-        <v>95209.6</v>
-      </c>
-      <c r="V9" s="0" t="n">
+      <c r="U9">
+        <v>95209.600000000006</v>
+      </c>
+      <c r="V9">
         <v>89046.7</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9">
         <v>106205</v>
       </c>
-      <c r="X9" s="0" t="n">
-        <v>36815.2</v>
-      </c>
-      <c r="Y9" s="0" t="n">
+      <c r="X9">
+        <v>36815.199999999997</v>
+      </c>
+      <c r="Y9">
         <v>110939</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9">
         <v>59869.4</v>
       </c>
-      <c r="AA9" s="0" t="n">
-        <v>16832.4</v>
-      </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AA9">
+        <v>16832.400000000001</v>
+      </c>
+      <c r="AB9">
         <v>55725</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AC9">
         <v>57342.5</v>
       </c>
-      <c r="AD9" s="0" t="n">
-        <v>72897.4</v>
-      </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AD9">
+        <v>72897.399999999994</v>
+      </c>
+      <c r="AE9">
         <v>151274</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AF9">
         <v>192165</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AG9">
         <v>104985</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AH9">
         <v>66282.8</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AI9">
         <v>79159</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AJ9">
         <v>30892.1</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AK9">
         <v>146957</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AL9">
         <v>119707</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AM9">
         <v>22128.3</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AN9">
         <v>113228</v>
       </c>
-      <c r="AO9" s="0" t="n">
+      <c r="AO9">
         <v>367024</v>
       </c>
-      <c r="AP9" s="0" t="n">
+      <c r="AP9">
         <v>961010</v>
       </c>
-      <c r="AQ9" s="0" t="n">
+      <c r="AQ9">
         <v>293313</v>
       </c>
-      <c r="AR9" s="0" t="n">
+      <c r="AR9">
         <v>32316.3</v>
       </c>
-      <c r="AS9" s="0" t="n">
+      <c r="AS9">
         <v>105552</v>
       </c>
-      <c r="AT9" s="0" t="n">
+      <c r="AT9">
         <v>798006</v>
       </c>
-      <c r="AU9" s="0" t="n">
+      <c r="AU9">
         <v>44519.4</v>
       </c>
-      <c r="AV9" s="0" t="n">
+      <c r="AV9">
         <v>710114</v>
       </c>
-      <c r="AW9" s="0" t="n">
+      <c r="AW9">
         <v>803926</v>
       </c>
-      <c r="AX9" s="0" t="n">
+      <c r="AX9">
         <v>637278</v>
       </c>
-      <c r="AY9" s="0" t="n">
-        <v>47909.6</v>
-      </c>
-      <c r="AZ9" s="0" t="n">
+      <c r="AY9">
+        <v>47909.599999999999</v>
+      </c>
+      <c r="AZ9">
         <v>202694</v>
       </c>
-      <c r="BA9" s="0" t="n">
+      <c r="BA9">
         <v>242404</v>
       </c>
-      <c r="BB9" s="0" t="n">
+      <c r="BB9">
         <v>225706</v>
       </c>
-      <c r="BC9" s="0" t="n">
+      <c r="BC9">
         <v>189565</v>
       </c>
-      <c r="BD9" s="0" t="n">
-        <v>76195.1</v>
-      </c>
-      <c r="BE9" s="0" t="n">
+      <c r="BD9">
+        <v>76195.100000000006</v>
+      </c>
+      <c r="BE9">
         <v>56520.6</v>
       </c>
-      <c r="BF9" s="0" t="n">
+      <c r="BF9">
         <v>146647</v>
       </c>
-      <c r="BG9" s="0" t="n">
-        <v>47811.2</v>
-      </c>
-      <c r="BH9" s="0" t="n">
+      <c r="BG9">
+        <v>47811.199999999997</v>
+      </c>
+      <c r="BH9">
         <v>282134</v>
       </c>
-      <c r="BI9" s="0" t="n">
+      <c r="BI9">
         <v>371647</v>
       </c>
-      <c r="BJ9" s="0" t="n">
+      <c r="BJ9">
         <v>204256</v>
       </c>
-      <c r="BK9" s="0" t="n">
+      <c r="BK9">
         <v>216728</v>
       </c>
-      <c r="BL9" s="0" t="n">
+      <c r="BL9">
         <v>217357</v>
       </c>
-      <c r="BM9" s="0" t="n">
+      <c r="BM9">
         <v>492267</v>
       </c>
-      <c r="BN9" s="0" t="n">
+      <c r="BN9">
         <v>437218</v>
       </c>
-      <c r="BO9" s="0" t="n">
+      <c r="BO9">
         <v>213015</v>
       </c>
-      <c r="BP9" s="0" t="n">
+      <c r="BP9">
         <v>318379</v>
       </c>
-      <c r="BQ9" s="0" t="n">
+      <c r="BQ9">
         <v>102697</v>
       </c>
-      <c r="BR9" s="0" t="n">
+      <c r="BR9">
         <v>142389</v>
       </c>
-      <c r="BS9" s="0" t="n">
+      <c r="BS9">
         <v>443569</v>
       </c>
-      <c r="BT9" s="0" t="n">
+      <c r="BT9">
         <v>273644</v>
       </c>
-      <c r="BU9" s="0" t="n">
+      <c r="BU9">
         <v>64693.1</v>
       </c>
-      <c r="BV9" s="0" t="n">
+      <c r="BV9">
         <v>121490</v>
       </c>
-      <c r="BW9" s="0" t="n">
+      <c r="BW9">
         <v>139128</v>
       </c>
-      <c r="BX9" s="0" t="n">
+      <c r="BX9">
         <v>220524</v>
       </c>
-      <c r="BY9" s="0" t="n">
+      <c r="BY9">
         <v>255743</v>
       </c>
-      <c r="BZ9" s="0" t="n">
+      <c r="BZ9">
         <v>612396</v>
       </c>
-      <c r="CA9" s="0" t="n">
+      <c r="CA9">
         <v>523488</v>
       </c>
-      <c r="CB9" s="0" t="n">
+      <c r="CB9">
         <v>367335</v>
       </c>
-      <c r="CC9" s="0" t="n">
+      <c r="CC9">
         <v>30334.3</v>
       </c>
-      <c r="CD9" s="0" t="n">
+      <c r="CD9">
         <v>258533</v>
       </c>
-      <c r="CE9" s="0" t="n">
+      <c r="CE9">
         <v>438495</v>
       </c>
-      <c r="CF9" s="0" t="n">
+      <c r="CF9">
         <v>15546.2</v>
       </c>
-      <c r="CG9" s="0" t="n">
+      <c r="CG9">
         <v>240115</v>
       </c>
-      <c r="CH9" s="0" t="n">
+      <c r="CH9">
         <v>485762</v>
       </c>
-      <c r="CI9" s="0" t="n">
+      <c r="CI9">
         <v>9948.24</v>
       </c>
-      <c r="CJ9" s="0" t="n">
+      <c r="CJ9">
         <v>219711</v>
       </c>
-      <c r="CK9" s="0" t="n">
+      <c r="CK9">
         <v>998883</v>
       </c>
-      <c r="CL9" s="0" t="n">
+      <c r="CL9">
         <v>457804</v>
       </c>
-      <c r="CM9" s="0" t="n">
+      <c r="CM9">
         <v>99664.2</v>
       </c>
-      <c r="CN9" s="0" t="n">
+      <c r="CN9">
         <v>861145</v>
       </c>
-      <c r="CO9" s="0" t="n">
+      <c r="CO9">
         <v>276869</v>
       </c>
-      <c r="CP9" s="0" t="n">
+      <c r="CP9">
         <v>705528</v>
       </c>
-      <c r="CQ9" s="0" t="n">
+      <c r="CQ9">
         <v>718570</v>
       </c>
-      <c r="CR9" s="0" t="n">
+      <c r="CR9">
         <v>46672.4</v>
       </c>
-      <c r="CS9" s="0" t="n">
+      <c r="CS9">
         <v>744319</v>
       </c>
-      <c r="CT9" s="0" t="n">
+      <c r="CT9">
         <v>740134</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>206795</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>87675.6</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>205885</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>237194</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>242297</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>80864.2</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>11098.7</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>67215.3</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>243456</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>26477.3</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10">
         <v>20295.8</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10">
         <v>57136.6</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10">
         <v>3995.06</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10">
         <v>53743.7</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10">
         <v>63378.8</v>
       </c>
-      <c r="Q10" s="0" t="n">
-        <v>38415.7</v>
-      </c>
-      <c r="R10" s="0" t="n">
+      <c r="Q10">
+        <v>38415.699999999997</v>
+      </c>
+      <c r="R10">
         <v>15977.8</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10">
         <v>21605.8</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10">
         <v>37701.9</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10">
         <v>96579.4</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10">
         <v>90091.7</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10">
         <v>107829</v>
       </c>
-      <c r="X10" s="0" t="n">
-        <v>37495.3</v>
-      </c>
-      <c r="Y10" s="0" t="n">
+      <c r="X10">
+        <v>37495.300000000003</v>
+      </c>
+      <c r="Y10">
         <v>112841</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="Z10">
         <v>60273.5</v>
       </c>
-      <c r="AA10" s="0" t="n">
-        <v>17389.6</v>
-      </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AA10">
+        <v>17389.599999999999</v>
+      </c>
+      <c r="AB10">
         <v>55712.5</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AC10">
         <v>57530.9</v>
       </c>
-      <c r="AD10" s="0" t="n">
-        <v>73295.1</v>
-      </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AD10">
+        <v>73295.100000000006</v>
+      </c>
+      <c r="AE10">
         <v>154588</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AF10">
         <v>192165</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AG10">
         <v>104984</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AH10">
         <v>66601.8</v>
       </c>
-      <c r="AI10" s="0" t="n">
-        <v>79239.6</v>
-      </c>
-      <c r="AJ10" s="0" t="n">
-        <v>31425.2</v>
-      </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AI10">
+        <v>79239.600000000006</v>
+      </c>
+      <c r="AJ10">
+        <v>31425.200000000001</v>
+      </c>
+      <c r="AK10">
         <v>149930</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AL10">
         <v>120257</v>
       </c>
-      <c r="AM10" s="0" t="n">
-        <v>22942.4</v>
-      </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AM10">
+        <v>22942.400000000001</v>
+      </c>
+      <c r="AN10">
         <v>114580</v>
       </c>
-      <c r="AO10" s="0" t="n">
+      <c r="AO10">
         <v>369740</v>
       </c>
-      <c r="AP10" s="0" t="n">
+      <c r="AP10">
         <v>969044</v>
       </c>
-      <c r="AQ10" s="0" t="n">
+      <c r="AQ10">
         <v>301587</v>
       </c>
-      <c r="AR10" s="0" t="n">
-        <v>33631.2</v>
-      </c>
-      <c r="AS10" s="0" t="n">
+      <c r="AR10">
+        <v>33631.199999999997</v>
+      </c>
+      <c r="AS10">
         <v>109126</v>
       </c>
-      <c r="AT10" s="0" t="n">
+      <c r="AT10">
         <v>809801</v>
       </c>
-      <c r="AU10" s="0" t="n">
+      <c r="AU10">
         <v>45786.8</v>
       </c>
-      <c r="AV10" s="0" t="n">
+      <c r="AV10">
         <v>719881</v>
       </c>
-      <c r="AW10" s="0" t="n">
+      <c r="AW10">
         <v>813716</v>
       </c>
-      <c r="AX10" s="0" t="n">
+      <c r="AX10">
         <v>641929</v>
       </c>
-      <c r="AY10" s="0" t="n">
+      <c r="AY10">
         <v>49379</v>
       </c>
-      <c r="AZ10" s="0" t="n">
+      <c r="AZ10">
         <v>206524</v>
       </c>
-      <c r="BA10" s="0" t="n">
+      <c r="BA10">
         <v>243901</v>
       </c>
-      <c r="BB10" s="0" t="n">
+      <c r="BB10">
         <v>227890</v>
       </c>
-      <c r="BC10" s="0" t="n">
+      <c r="BC10">
         <v>192062</v>
       </c>
-      <c r="BD10" s="0" t="n">
-        <v>77067.6</v>
-      </c>
-      <c r="BE10" s="0" t="n">
+      <c r="BD10">
+        <v>77067.600000000006</v>
+      </c>
+      <c r="BE10">
         <v>57577.3</v>
       </c>
-      <c r="BF10" s="0" t="n">
+      <c r="BF10">
         <v>146983</v>
       </c>
-      <c r="BG10" s="0" t="n">
+      <c r="BG10">
         <v>49553.4</v>
       </c>
-      <c r="BH10" s="0" t="n">
+      <c r="BH10">
         <v>282192</v>
       </c>
-      <c r="BI10" s="0" t="n">
+      <c r="BI10">
         <v>377737</v>
       </c>
-      <c r="BJ10" s="0" t="n">
+      <c r="BJ10">
         <v>205247</v>
       </c>
-      <c r="BK10" s="0" t="n">
+      <c r="BK10">
         <v>216874</v>
       </c>
-      <c r="BL10" s="0" t="n">
+      <c r="BL10">
         <v>217928</v>
       </c>
-      <c r="BM10" s="0" t="n">
+      <c r="BM10">
         <v>494424</v>
       </c>
-      <c r="BN10" s="0" t="n">
+      <c r="BN10">
         <v>442855</v>
       </c>
-      <c r="BO10" s="0" t="n">
+      <c r="BO10">
         <v>213281</v>
       </c>
-      <c r="BP10" s="0" t="n">
+      <c r="BP10">
         <v>320892</v>
       </c>
-      <c r="BQ10" s="0" t="n">
+      <c r="BQ10">
         <v>106230</v>
       </c>
-      <c r="BR10" s="0" t="n">
+      <c r="BR10">
         <v>147178</v>
       </c>
-      <c r="BS10" s="0" t="n">
+      <c r="BS10">
         <v>444623</v>
       </c>
-      <c r="BT10" s="0" t="n">
+      <c r="BT10">
         <v>274378</v>
       </c>
-      <c r="BU10" s="0" t="n">
-        <v>66875.6</v>
-      </c>
-      <c r="BV10" s="0" t="n">
+      <c r="BU10">
+        <v>66875.600000000006</v>
+      </c>
+      <c r="BV10">
         <v>125936</v>
       </c>
-      <c r="BW10" s="0" t="n">
+      <c r="BW10">
         <v>144262</v>
       </c>
-      <c r="BX10" s="0" t="n">
+      <c r="BX10">
         <v>225146</v>
       </c>
-      <c r="BY10" s="0" t="n">
+      <c r="BY10">
         <v>259073</v>
       </c>
-      <c r="BZ10" s="0" t="n">
+      <c r="BZ10">
         <v>620733</v>
       </c>
-      <c r="CA10" s="0" t="n">
+      <c r="CA10">
         <v>529228</v>
       </c>
-      <c r="CB10" s="0" t="n">
+      <c r="CB10">
         <v>370323</v>
       </c>
-      <c r="CC10" s="0" t="n">
+      <c r="CC10">
         <v>31087.4</v>
       </c>
-      <c r="CD10" s="0" t="n">
+      <c r="CD10">
         <v>258546</v>
       </c>
-      <c r="CE10" s="0" t="n">
+      <c r="CE10">
         <v>442624</v>
       </c>
-      <c r="CF10" s="0" t="n">
+      <c r="CF10">
         <v>16183.8</v>
       </c>
-      <c r="CG10" s="0" t="n">
+      <c r="CG10">
         <v>241292</v>
       </c>
-      <c r="CH10" s="0" t="n">
+      <c r="CH10">
         <v>491429</v>
       </c>
-      <c r="CI10" s="0" t="n">
-        <v>10136.8</v>
-      </c>
-      <c r="CJ10" s="0" t="n">
+      <c r="CI10">
+        <v>10136.799999999999</v>
+      </c>
+      <c r="CJ10">
         <v>220824</v>
       </c>
-      <c r="CK10" s="0" t="n">
+      <c r="CK10" s="1">
         <v>1009280</v>
       </c>
-      <c r="CL10" s="0" t="n">
+      <c r="CL10">
         <v>458438</v>
       </c>
-      <c r="CM10" s="0" t="n">
+      <c r="CM10">
         <v>102688</v>
       </c>
-      <c r="CN10" s="0" t="n">
+      <c r="CN10">
         <v>871865</v>
       </c>
-      <c r="CO10" s="0" t="n">
+      <c r="CO10">
         <v>282988</v>
       </c>
-      <c r="CP10" s="0" t="n">
+      <c r="CP10">
         <v>708983</v>
       </c>
-      <c r="CQ10" s="0" t="n">
+      <c r="CQ10">
         <v>723062</v>
       </c>
-      <c r="CR10" s="0" t="n">
+      <c r="CR10">
         <v>48057</v>
       </c>
-      <c r="CS10" s="0" t="n">
+      <c r="CS10">
         <v>751151</v>
       </c>
-      <c r="CT10" s="0" t="n">
+      <c r="CT10">
         <v>746116</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>60</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>207159</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>87997.2</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>206097</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>238209</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>242944</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>80984.1</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="G11">
+        <v>80984.100000000006</v>
+      </c>
+      <c r="H11">
         <v>11312.6</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>67512.5</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>244530</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>26490.7</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>20302.3</v>
       </c>
-      <c r="M11" s="0" t="n">
-        <v>57387.2</v>
-      </c>
-      <c r="N11" s="0" t="n">
+      <c r="M11">
+        <v>57387.199999999997</v>
+      </c>
+      <c r="N11">
         <v>4010.54</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11">
         <v>53886</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11">
         <v>63500.2</v>
       </c>
-      <c r="Q11" s="0" t="n">
-        <v>38484.8</v>
-      </c>
-      <c r="R11" s="0" t="n">
+      <c r="Q11">
+        <v>38484.800000000003</v>
+      </c>
+      <c r="R11">
         <v>16012.1</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <v>21637.6</v>
-      </c>
-      <c r="T11" s="0" t="n">
+      <c r="S11">
+        <v>21637.599999999999</v>
+      </c>
+      <c r="T11">
         <v>37701.9</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11">
         <v>96581.5</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11">
         <v>90128.8</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11">
         <v>107934</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11">
         <v>37514.5</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Y11">
         <v>112841</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="Z11">
         <v>60208.3</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AA11">
         <v>17486.3</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AB11">
         <v>55754.9</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AC11">
         <v>57531.9</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AD11">
         <v>73290.5</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AE11">
         <v>154642</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AF11">
         <v>192165</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AG11">
         <v>104988</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AH11">
         <v>66644.2</v>
       </c>
-      <c r="AI11" s="0" t="n">
-        <v>79361.4</v>
-      </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AI11">
+        <v>79361.399999999994</v>
+      </c>
+      <c r="AJ11">
         <v>31592.6</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AK11">
         <v>150638</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AL11">
         <v>120257</v>
       </c>
-      <c r="AM11" s="0" t="n">
-        <v>22960.8</v>
-      </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AM11">
+        <v>22960.799999999999</v>
+      </c>
+      <c r="AN11">
         <v>114697</v>
       </c>
-      <c r="AO11" s="0" t="n">
+      <c r="AO11">
         <v>370702</v>
       </c>
-      <c r="AP11" s="0" t="n">
+      <c r="AP11">
         <v>969767</v>
       </c>
-      <c r="AQ11" s="0" t="n">
+      <c r="AQ11">
         <v>304179</v>
       </c>
-      <c r="AR11" s="0" t="n">
+      <c r="AR11">
         <v>33786.5</v>
       </c>
-      <c r="AS11" s="0" t="n">
+      <c r="AS11">
         <v>109391</v>
       </c>
-      <c r="AT11" s="0" t="n">
+      <c r="AT11">
         <v>811120</v>
       </c>
-      <c r="AU11" s="0" t="n">
+      <c r="AU11">
         <v>45786.8</v>
       </c>
-      <c r="AV11" s="0" t="n">
+      <c r="AV11">
         <v>720464</v>
       </c>
-      <c r="AW11" s="0" t="n">
+      <c r="AW11">
         <v>814064</v>
       </c>
-      <c r="AX11" s="0" t="n">
+      <c r="AX11">
         <v>641929</v>
       </c>
-      <c r="AY11" s="0" t="n">
+      <c r="AY11">
         <v>49567.5</v>
       </c>
-      <c r="AZ11" s="0" t="n">
+      <c r="AZ11">
         <v>206851</v>
       </c>
-      <c r="BA11" s="0" t="n">
+      <c r="BA11">
         <v>244408</v>
       </c>
-      <c r="BB11" s="0" t="n">
+      <c r="BB11">
         <v>227972</v>
       </c>
-      <c r="BC11" s="0" t="n">
+      <c r="BC11">
         <v>192112</v>
       </c>
-      <c r="BD11" s="0" t="n">
+      <c r="BD11">
         <v>77616.5</v>
       </c>
-      <c r="BE11" s="0" t="n">
+      <c r="BE11">
         <v>57830</v>
       </c>
-      <c r="BF11" s="0" t="n">
+      <c r="BF11">
         <v>146988</v>
       </c>
-      <c r="BG11" s="0" t="n">
-        <v>49667.2</v>
-      </c>
-      <c r="BH11" s="0" t="n">
+      <c r="BG11">
+        <v>49667.199999999997</v>
+      </c>
+      <c r="BH11">
         <v>282192</v>
       </c>
-      <c r="BI11" s="0" t="n">
+      <c r="BI11">
         <v>378195</v>
       </c>
-      <c r="BJ11" s="0" t="n">
+      <c r="BJ11">
         <v>205496</v>
       </c>
-      <c r="BK11" s="0" t="n">
+      <c r="BK11">
         <v>216868</v>
       </c>
-      <c r="BL11" s="0" t="n">
+      <c r="BL11">
         <v>218073</v>
       </c>
-      <c r="BM11" s="0" t="n">
+      <c r="BM11">
         <v>494867</v>
       </c>
-      <c r="BN11" s="0" t="n">
+      <c r="BN11">
         <v>442943</v>
       </c>
-      <c r="BO11" s="0" t="n">
+      <c r="BO11">
         <v>213716</v>
       </c>
-      <c r="BP11" s="0" t="n">
+      <c r="BP11">
         <v>321335</v>
       </c>
-      <c r="BQ11" s="0" t="n">
+      <c r="BQ11">
         <v>107115</v>
       </c>
-      <c r="BR11" s="0" t="n">
+      <c r="BR11">
         <v>148033</v>
       </c>
-      <c r="BS11" s="0" t="n">
+      <c r="BS11">
         <v>444756</v>
       </c>
-      <c r="BT11" s="0" t="n">
+      <c r="BT11">
         <v>274489</v>
       </c>
-      <c r="BU11" s="0" t="n">
+      <c r="BU11">
         <v>67130.7</v>
       </c>
-      <c r="BV11" s="0" t="n">
+      <c r="BV11">
         <v>127137</v>
       </c>
-      <c r="BW11" s="0" t="n">
+      <c r="BW11">
         <v>145025</v>
       </c>
-      <c r="BX11" s="0" t="n">
+      <c r="BX11">
         <v>225894</v>
       </c>
-      <c r="BY11" s="0" t="n">
+      <c r="BY11">
         <v>259648</v>
       </c>
-      <c r="BZ11" s="0" t="n">
+      <c r="BZ11">
         <v>620812</v>
       </c>
-      <c r="CA11" s="0" t="n">
+      <c r="CA11">
         <v>529228</v>
       </c>
-      <c r="CB11" s="0" t="n">
+      <c r="CB11">
         <v>370495</v>
       </c>
-      <c r="CC11" s="0" t="n">
+      <c r="CC11">
         <v>31126.7</v>
       </c>
-      <c r="CD11" s="0" t="n">
+      <c r="CD11">
         <v>258945</v>
       </c>
-      <c r="CE11" s="0" t="n">
+      <c r="CE11">
         <v>442901</v>
       </c>
-      <c r="CF11" s="0" t="n">
+      <c r="CF11">
         <v>16248.9</v>
       </c>
-      <c r="CG11" s="0" t="n">
+      <c r="CG11">
         <v>242296</v>
       </c>
-      <c r="CH11" s="0" t="n">
+      <c r="CH11">
         <v>491462</v>
       </c>
-      <c r="CI11" s="0" t="n">
+      <c r="CI11">
         <v>10175.6</v>
       </c>
-      <c r="CJ11" s="0" t="n">
+      <c r="CJ11">
         <v>221576</v>
       </c>
-      <c r="CK11" s="0" t="n">
+      <c r="CK11" s="1">
         <v>1010790</v>
       </c>
-      <c r="CL11" s="0" t="n">
+      <c r="CL11">
         <v>459288</v>
       </c>
-      <c r="CM11" s="0" t="n">
+      <c r="CM11">
         <v>103762</v>
       </c>
-      <c r="CN11" s="0" t="n">
+      <c r="CN11">
         <v>873650</v>
       </c>
-      <c r="CO11" s="0" t="n">
+      <c r="CO11">
         <v>284753</v>
       </c>
-      <c r="CP11" s="0" t="n">
+      <c r="CP11">
         <v>709519</v>
       </c>
-      <c r="CQ11" s="0" t="n">
+      <c r="CQ11">
         <v>723452</v>
       </c>
-      <c r="CR11" s="0" t="n">
+      <c r="CR11">
         <v>48086.1</v>
       </c>
-      <c r="CS11" s="0" t="n">
+      <c r="CS11">
         <v>751866</v>
       </c>
-      <c r="CT11" s="0" t="n">
+      <c r="CT11">
         <v>747522</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>70</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>207502</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>88333.7</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>206357</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>238505</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>243247</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>81453.5</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>11733.3</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>67651.5</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>245799</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>26526.2</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>20359.5</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12">
         <v>58322.3</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12">
         <v>4010.54</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12">
         <v>53942.3</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12">
         <v>63509</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12">
         <v>38495.9</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12">
         <v>16081.2</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12">
         <v>21706.7</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12">
         <v>37715.4</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12">
         <v>96622.1</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12">
         <v>90170.8</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="W12">
         <v>109616</v>
       </c>
-      <c r="X12" s="0" t="n">
-        <v>37663.7</v>
-      </c>
-      <c r="Y12" s="0" t="n">
+      <c r="X12">
+        <v>37663.699999999997</v>
+      </c>
+      <c r="Y12">
         <v>112841</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="Z12">
         <v>60208.3</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AA12">
         <v>17947.3</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AB12">
         <v>55811.4</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AC12">
         <v>57531.9</v>
       </c>
-      <c r="AD12" s="0" t="n">
-        <v>73299.1</v>
-      </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AD12">
+        <v>73299.100000000006</v>
+      </c>
+      <c r="AE12">
         <v>154642</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AF12">
         <v>192165</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AG12">
         <v>104983</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AH12">
         <v>66921</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AI12">
         <v>79468</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AJ12">
         <v>31690.5</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AK12">
         <v>151486</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AL12">
         <v>120257</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AM12">
         <v>23064.3</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AN12">
         <v>114866</v>
       </c>
-      <c r="AO12" s="0" t="n">
+      <c r="AO12">
         <v>372922</v>
       </c>
-      <c r="AP12" s="0" t="n">
+      <c r="AP12">
         <v>971459</v>
       </c>
-      <c r="AQ12" s="0" t="n">
+      <c r="AQ12">
         <v>306450</v>
       </c>
-      <c r="AR12" s="0" t="n">
+      <c r="AR12">
         <v>34094.5</v>
       </c>
-      <c r="AS12" s="0" t="n">
+      <c r="AS12">
         <v>109764</v>
       </c>
-      <c r="AT12" s="0" t="n">
+      <c r="AT12">
         <v>812617</v>
       </c>
-      <c r="AU12" s="0" t="n">
+      <c r="AU12">
         <v>45786.8</v>
       </c>
-      <c r="AV12" s="0" t="n">
+      <c r="AV12">
         <v>723628</v>
       </c>
-      <c r="AW12" s="0" t="n">
+      <c r="AW12">
         <v>814080</v>
       </c>
-      <c r="AX12" s="0" t="n">
+      <c r="AX12">
         <v>642424</v>
       </c>
-      <c r="AY12" s="0" t="n">
+      <c r="AY12">
         <v>49670.9</v>
       </c>
-      <c r="AZ12" s="0" t="n">
+      <c r="AZ12">
         <v>207460</v>
       </c>
-      <c r="BA12" s="0" t="n">
+      <c r="BA12">
         <v>245345</v>
       </c>
-      <c r="BB12" s="0" t="n">
+      <c r="BB12">
         <v>228014</v>
       </c>
-      <c r="BC12" s="0" t="n">
+      <c r="BC12">
         <v>192112</v>
       </c>
-      <c r="BD12" s="0" t="n">
-        <v>78240.6</v>
-      </c>
-      <c r="BE12" s="0" t="n">
+      <c r="BD12">
+        <v>78240.600000000006</v>
+      </c>
+      <c r="BE12">
         <v>58166</v>
       </c>
-      <c r="BF12" s="0" t="n">
+      <c r="BF12">
         <v>147143</v>
       </c>
-      <c r="BG12" s="0" t="n">
+      <c r="BG12">
         <v>50483</v>
       </c>
-      <c r="BH12" s="0" t="n">
+      <c r="BH12">
         <v>282281</v>
       </c>
-      <c r="BI12" s="0" t="n">
+      <c r="BI12">
         <v>379425</v>
       </c>
-      <c r="BJ12" s="0" t="n">
+      <c r="BJ12">
         <v>205810</v>
       </c>
-      <c r="BK12" s="0" t="n">
+      <c r="BK12">
         <v>217337</v>
       </c>
-      <c r="BL12" s="0" t="n">
+      <c r="BL12">
         <v>218968</v>
       </c>
-      <c r="BM12" s="0" t="n">
+      <c r="BM12">
         <v>495049</v>
       </c>
-      <c r="BN12" s="0" t="n">
+      <c r="BN12">
         <v>443582</v>
       </c>
-      <c r="BO12" s="0" t="n">
+      <c r="BO12">
         <v>214148</v>
       </c>
-      <c r="BP12" s="0" t="n">
+      <c r="BP12">
         <v>321947</v>
       </c>
-      <c r="BQ12" s="0" t="n">
+      <c r="BQ12">
         <v>108145</v>
       </c>
-      <c r="BR12" s="0" t="n">
+      <c r="BR12">
         <v>149011</v>
       </c>
-      <c r="BS12" s="0" t="n">
+      <c r="BS12">
         <v>445298</v>
       </c>
-      <c r="BT12" s="0" t="n">
+      <c r="BT12">
         <v>274818</v>
       </c>
-      <c r="BU12" s="0" t="n">
-        <v>67555.9</v>
-      </c>
-      <c r="BV12" s="0" t="n">
+      <c r="BU12">
+        <v>67555.899999999994</v>
+      </c>
+      <c r="BV12">
         <v>128337</v>
       </c>
-      <c r="BW12" s="0" t="n">
+      <c r="BW12">
         <v>145973</v>
       </c>
-      <c r="BX12" s="0" t="n">
+      <c r="BX12">
         <v>227313</v>
       </c>
-      <c r="BY12" s="0" t="n">
+      <c r="BY12">
         <v>262097</v>
       </c>
-      <c r="BZ12" s="0" t="n">
+      <c r="BZ12">
         <v>621089</v>
       </c>
-      <c r="CA12" s="0" t="n">
+      <c r="CA12">
         <v>529228</v>
       </c>
-      <c r="CB12" s="0" t="n">
+      <c r="CB12">
         <v>370719</v>
       </c>
-      <c r="CC12" s="0" t="n">
-        <v>31171.2</v>
-      </c>
-      <c r="CD12" s="0" t="n">
+      <c r="CC12">
+        <v>31171.200000000001</v>
+      </c>
+      <c r="CD12">
         <v>259252</v>
       </c>
-      <c r="CE12" s="0" t="n">
+      <c r="CE12">
         <v>443251</v>
       </c>
-      <c r="CF12" s="0" t="n">
-        <v>16424.6</v>
-      </c>
-      <c r="CG12" s="0" t="n">
+      <c r="CF12">
+        <v>16424.599999999999</v>
+      </c>
+      <c r="CG12">
         <v>243838</v>
       </c>
-      <c r="CH12" s="0" t="n">
+      <c r="CH12">
         <v>491610</v>
       </c>
-      <c r="CI12" s="0" t="n">
+      <c r="CI12">
         <v>10200.4</v>
       </c>
-      <c r="CJ12" s="0" t="n">
+      <c r="CJ12">
         <v>222264</v>
       </c>
-      <c r="CK12" s="0" t="n">
+      <c r="CK12" s="1">
         <v>1015570</v>
       </c>
-      <c r="CL12" s="0" t="n">
+      <c r="CL12">
         <v>461224</v>
       </c>
-      <c r="CM12" s="0" t="n">
+      <c r="CM12">
         <v>104452</v>
       </c>
-      <c r="CN12" s="0" t="n">
+      <c r="CN12">
         <v>877715</v>
       </c>
-      <c r="CO12" s="0" t="n">
+      <c r="CO12">
         <v>288312</v>
       </c>
-      <c r="CP12" s="0" t="n">
+      <c r="CP12">
         <v>710094</v>
       </c>
-      <c r="CQ12" s="0" t="n">
+      <c r="CQ12">
         <v>723824</v>
       </c>
-      <c r="CR12" s="0" t="n">
+      <c r="CR12">
         <v>48182.6</v>
       </c>
-      <c r="CS12" s="0" t="n">
+      <c r="CS12">
         <v>752882</v>
       </c>
-      <c r="CT12" s="0" t="n">
+      <c r="CT12">
         <v>751591</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>80</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>207504</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>88387.1</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>206357</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>238519</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>243247</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>81453.5</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>11771.3</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>67653.9</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="I13">
+        <v>67653.899999999994</v>
+      </c>
+      <c r="J13">
         <v>246348</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>26526.2</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>20361.7</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13">
         <v>58380.4</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13">
         <v>4010.54</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13">
         <v>53942.3</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13">
         <v>63537</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13">
         <v>38495.9</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13">
         <v>16081.2</v>
       </c>
-      <c r="S13" s="0" t="n">
-        <v>21712.8</v>
-      </c>
-      <c r="T13" s="0" t="n">
+      <c r="S13">
+        <v>21712.799999999999</v>
+      </c>
+      <c r="T13">
         <v>37715.4</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13">
         <v>96622.1</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13">
         <v>90170.8</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="W13">
         <v>109669</v>
       </c>
-      <c r="X13" s="0" t="n">
-        <v>37663.7</v>
-      </c>
-      <c r="Y13" s="0" t="n">
+      <c r="X13">
+        <v>37663.699999999997</v>
+      </c>
+      <c r="Y13">
         <v>112841</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="Z13">
         <v>60208.3</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AA13">
         <v>17968.3</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AB13">
         <v>55811.4</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AC13">
         <v>57531.9</v>
       </c>
-      <c r="AD13" s="0" t="n">
-        <v>73299.1</v>
-      </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AD13">
+        <v>73299.100000000006</v>
+      </c>
+      <c r="AE13">
         <v>154657</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AF13">
         <v>192165</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AG13">
         <v>104990</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AH13">
         <v>66921</v>
       </c>
-      <c r="AI13" s="0" t="n">
-        <v>79471.6</v>
-      </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AI13">
+        <v>79471.600000000006</v>
+      </c>
+      <c r="AJ13">
         <v>31690.5</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AK13">
         <v>151550</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AL13">
         <v>120257</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AM13">
         <v>23064.3</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AN13">
         <v>114866</v>
       </c>
-      <c r="AO13" s="0" t="n">
+      <c r="AO13">
         <v>373302</v>
       </c>
-      <c r="AP13" s="0" t="n">
+      <c r="AP13">
         <v>971459</v>
       </c>
-      <c r="AQ13" s="0" t="n">
+      <c r="AQ13">
         <v>307102</v>
       </c>
-      <c r="AR13" s="0" t="n">
-        <v>34095.2</v>
-      </c>
-      <c r="AS13" s="0" t="n">
+      <c r="AR13">
+        <v>34095.199999999997</v>
+      </c>
+      <c r="AS13">
         <v>109772</v>
       </c>
-      <c r="AT13" s="0" t="n">
+      <c r="AT13">
         <v>812988</v>
       </c>
-      <c r="AU13" s="0" t="n">
+      <c r="AU13">
         <v>45786.8</v>
       </c>
-      <c r="AV13" s="0" t="n">
+      <c r="AV13">
         <v>723630</v>
       </c>
-      <c r="AW13" s="0" t="n">
+      <c r="AW13">
         <v>814080</v>
       </c>
-      <c r="AX13" s="0" t="n">
+      <c r="AX13">
         <v>642591</v>
       </c>
-      <c r="AY13" s="0" t="n">
+      <c r="AY13">
         <v>49661.5</v>
       </c>
-      <c r="AZ13" s="0" t="n">
+      <c r="AZ13">
         <v>207632</v>
       </c>
-      <c r="BA13" s="0" t="n">
+      <c r="BA13">
         <v>245400</v>
       </c>
-      <c r="BB13" s="0" t="n">
+      <c r="BB13">
         <v>228014</v>
       </c>
-      <c r="BC13" s="0" t="n">
+      <c r="BC13">
         <v>192112</v>
       </c>
-      <c r="BD13" s="0" t="n">
+      <c r="BD13">
         <v>78379</v>
       </c>
-      <c r="BE13" s="0" t="n">
+      <c r="BE13">
         <v>58273.8</v>
       </c>
-      <c r="BF13" s="0" t="n">
+      <c r="BF13">
         <v>147142</v>
       </c>
-      <c r="BG13" s="0" t="n">
+      <c r="BG13">
         <v>50569</v>
       </c>
-      <c r="BH13" s="0" t="n">
+      <c r="BH13">
         <v>282294</v>
       </c>
-      <c r="BI13" s="0" t="n">
+      <c r="BI13">
         <v>379433</v>
       </c>
-      <c r="BJ13" s="0" t="n">
+      <c r="BJ13">
         <v>205928</v>
       </c>
-      <c r="BK13" s="0" t="n">
+      <c r="BK13">
         <v>217588</v>
       </c>
-      <c r="BL13" s="0" t="n">
+      <c r="BL13">
         <v>219248</v>
       </c>
-      <c r="BM13" s="0" t="n">
+      <c r="BM13">
         <v>495049</v>
       </c>
-      <c r="BN13" s="0" t="n">
+      <c r="BN13">
         <v>443582</v>
       </c>
-      <c r="BO13" s="0" t="n">
+      <c r="BO13">
         <v>214148</v>
       </c>
-      <c r="BP13" s="0" t="n">
+      <c r="BP13">
         <v>321947</v>
       </c>
-      <c r="BQ13" s="0" t="n">
+      <c r="BQ13">
         <v>108282</v>
       </c>
-      <c r="BR13" s="0" t="n">
+      <c r="BR13">
         <v>149024</v>
       </c>
-      <c r="BS13" s="0" t="n">
+      <c r="BS13">
         <v>445285</v>
       </c>
-      <c r="BT13" s="0" t="n">
+      <c r="BT13">
         <v>274834</v>
       </c>
-      <c r="BU13" s="0" t="n">
+      <c r="BU13">
         <v>67559.3</v>
       </c>
-      <c r="BV13" s="0" t="n">
+      <c r="BV13">
         <v>128843</v>
       </c>
-      <c r="BW13" s="0" t="n">
+      <c r="BW13">
         <v>146008</v>
       </c>
-      <c r="BX13" s="0" t="n">
+      <c r="BX13">
         <v>227536</v>
       </c>
-      <c r="BY13" s="0" t="n">
+      <c r="BY13">
         <v>262427</v>
       </c>
-      <c r="BZ13" s="0" t="n">
+      <c r="BZ13">
         <v>621089</v>
       </c>
-      <c r="CA13" s="0" t="n">
+      <c r="CA13">
         <v>529228</v>
       </c>
-      <c r="CB13" s="0" t="n">
+      <c r="CB13">
         <v>370719</v>
       </c>
-      <c r="CC13" s="0" t="n">
-        <v>31171.2</v>
-      </c>
-      <c r="CD13" s="0" t="n">
+      <c r="CC13">
+        <v>31171.200000000001</v>
+      </c>
+      <c r="CD13">
         <v>259394</v>
       </c>
-      <c r="CE13" s="0" t="n">
+      <c r="CE13">
         <v>443251</v>
       </c>
-      <c r="CF13" s="0" t="n">
+      <c r="CF13">
         <v>16426.2</v>
       </c>
-      <c r="CG13" s="0" t="n">
+      <c r="CG13">
         <v>244239</v>
       </c>
-      <c r="CH13" s="0" t="n">
+      <c r="CH13">
         <v>491610</v>
       </c>
-      <c r="CI13" s="0" t="n">
+      <c r="CI13">
         <v>10200.4</v>
       </c>
-      <c r="CJ13" s="0" t="n">
+      <c r="CJ13">
         <v>222998</v>
       </c>
-      <c r="CK13" s="0" t="n">
+      <c r="CK13" s="1">
         <v>1015570</v>
       </c>
-      <c r="CL13" s="0" t="n">
+      <c r="CL13">
         <v>461527</v>
       </c>
-      <c r="CM13" s="0" t="n">
+      <c r="CM13">
         <v>105161</v>
       </c>
-      <c r="CN13" s="0" t="n">
+      <c r="CN13">
         <v>877979</v>
       </c>
-      <c r="CO13" s="0" t="n">
+      <c r="CO13">
         <v>289040</v>
       </c>
-      <c r="CP13" s="0" t="n">
+      <c r="CP13">
         <v>710219</v>
       </c>
-      <c r="CQ13" s="0" t="n">
+      <c r="CQ13">
         <v>723824</v>
       </c>
-      <c r="CR13" s="0" t="n">
+      <c r="CR13">
         <v>48185.9</v>
       </c>
-      <c r="CS13" s="0" t="n">
+      <c r="CS13">
         <v>752882</v>
       </c>
-      <c r="CT13" s="0" t="n">
+      <c r="CT13">
         <v>752698</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>90</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>207503</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>88432.3</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>206357</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>238690</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>243247</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>81493.4</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="G14">
+        <v>81493.399999999994</v>
+      </c>
+      <c r="H14">
         <v>11837.7</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>67803.4</v>
-      </c>
-      <c r="J14" s="0" t="n">
+      <c r="I14">
+        <v>67803.399999999994</v>
+      </c>
+      <c r="J14">
         <v>246628</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>26526.2</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>20390.9</v>
-      </c>
-      <c r="M14" s="0" t="n">
+      <c r="L14">
+        <v>20390.900000000001</v>
+      </c>
+      <c r="M14">
         <v>58671.3</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14">
         <v>4013.48</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14">
         <v>53959.6</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14">
         <v>63592.9</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14">
         <v>38495.9</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14">
         <v>16081.2</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14">
         <v>21791.8</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14">
         <v>37715.4</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="U14">
         <v>96622.1</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14">
         <v>90170.8</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="W14">
         <v>110438</v>
       </c>
-      <c r="X14" s="0" t="n">
-        <v>37726.8</v>
-      </c>
-      <c r="Y14" s="0" t="n">
+      <c r="X14">
+        <v>37726.800000000003</v>
+      </c>
+      <c r="Y14">
         <v>112841</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="Z14">
         <v>60208.3</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AA14">
         <v>18240.3</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AB14">
         <v>55811.4</v>
       </c>
-      <c r="AC14" s="0" t="n">
-        <v>57532.8</v>
-      </c>
-      <c r="AD14" s="0" t="n">
-        <v>73299.1</v>
-      </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AC14">
+        <v>57532.800000000003</v>
+      </c>
+      <c r="AD14">
+        <v>73299.100000000006</v>
+      </c>
+      <c r="AE14">
         <v>154713</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AF14">
         <v>192165</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AG14">
         <v>105092</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AH14">
         <v>66970.7</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AI14">
         <v>79474</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AJ14">
         <v>31690.5</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AK14">
         <v>152223</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AL14">
         <v>120257</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AM14">
         <v>23064.3</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AN14">
         <v>114866</v>
       </c>
-      <c r="AO14" s="0" t="n">
+      <c r="AO14">
         <v>374951</v>
       </c>
-      <c r="AP14" s="0" t="n">
+      <c r="AP14">
         <v>971459</v>
       </c>
-      <c r="AQ14" s="0" t="n">
+      <c r="AQ14">
         <v>307323</v>
       </c>
-      <c r="AR14" s="0" t="n">
-        <v>34125.3</v>
-      </c>
-      <c r="AS14" s="0" t="n">
+      <c r="AR14">
+        <v>34125.300000000003</v>
+      </c>
+      <c r="AS14">
         <v>109825</v>
       </c>
-      <c r="AT14" s="0" t="n">
+      <c r="AT14">
         <v>814200</v>
       </c>
-      <c r="AU14" s="0" t="n">
+      <c r="AU14">
         <v>45786.8</v>
       </c>
-      <c r="AV14" s="0" t="n">
+      <c r="AV14">
         <v>723630</v>
       </c>
-      <c r="AW14" s="0" t="n">
+      <c r="AW14">
         <v>814080</v>
       </c>
-      <c r="AX14" s="0" t="n">
+      <c r="AX14">
         <v>643396</v>
       </c>
-      <c r="AY14" s="0" t="n">
+      <c r="AY14">
         <v>49847.1</v>
       </c>
-      <c r="AZ14" s="0" t="n">
+      <c r="AZ14">
         <v>208305</v>
       </c>
-      <c r="BA14" s="0" t="n">
+      <c r="BA14">
         <v>246012</v>
       </c>
-      <c r="BB14" s="0" t="n">
+      <c r="BB14">
         <v>228014</v>
       </c>
-      <c r="BC14" s="0" t="n">
+      <c r="BC14">
         <v>192112</v>
       </c>
-      <c r="BD14" s="0" t="n">
+      <c r="BD14">
         <v>78749.7</v>
       </c>
-      <c r="BE14" s="0" t="n">
+      <c r="BE14">
         <v>58730.3</v>
       </c>
-      <c r="BF14" s="0" t="n">
+      <c r="BF14">
         <v>147189</v>
       </c>
-      <c r="BG14" s="0" t="n">
+      <c r="BG14">
         <v>50841.8</v>
       </c>
-      <c r="BH14" s="0" t="n">
+      <c r="BH14">
         <v>282797</v>
       </c>
-      <c r="BI14" s="0" t="n">
+      <c r="BI14">
         <v>380093</v>
       </c>
-      <c r="BJ14" s="0" t="n">
+      <c r="BJ14">
         <v>206149</v>
       </c>
-      <c r="BK14" s="0" t="n">
+      <c r="BK14">
         <v>217940</v>
       </c>
-      <c r="BL14" s="0" t="n">
+      <c r="BL14">
         <v>219964</v>
       </c>
-      <c r="BM14" s="0" t="n">
+      <c r="BM14">
         <v>495049</v>
       </c>
-      <c r="BN14" s="0" t="n">
+      <c r="BN14">
         <v>443582</v>
       </c>
-      <c r="BO14" s="0" t="n">
+      <c r="BO14">
         <v>214551</v>
       </c>
-      <c r="BP14" s="0" t="n">
+      <c r="BP14">
         <v>321947</v>
       </c>
-      <c r="BQ14" s="0" t="n">
+      <c r="BQ14">
         <v>108535</v>
       </c>
-      <c r="BR14" s="0" t="n">
+      <c r="BR14">
         <v>149163</v>
       </c>
-      <c r="BS14" s="0" t="n">
+      <c r="BS14">
         <v>445972</v>
       </c>
-      <c r="BT14" s="0" t="n">
+      <c r="BT14">
         <v>275836</v>
       </c>
-      <c r="BU14" s="0" t="n">
+      <c r="BU14">
         <v>67693.5</v>
       </c>
-      <c r="BV14" s="0" t="n">
+      <c r="BV14">
         <v>130453</v>
       </c>
-      <c r="BW14" s="0" t="n">
+      <c r="BW14">
         <v>146472</v>
       </c>
-      <c r="BX14" s="0" t="n">
+      <c r="BX14">
         <v>228936</v>
       </c>
-      <c r="BY14" s="0" t="n">
+      <c r="BY14">
         <v>263558</v>
       </c>
-      <c r="BZ14" s="0" t="n">
+      <c r="BZ14">
         <v>621462</v>
       </c>
-      <c r="CA14" s="0" t="n">
+      <c r="CA14">
         <v>529228</v>
       </c>
-      <c r="CB14" s="0" t="n">
+      <c r="CB14">
         <v>370963</v>
       </c>
-      <c r="CC14" s="0" t="n">
-        <v>31171.2</v>
-      </c>
-      <c r="CD14" s="0" t="n">
+      <c r="CC14">
+        <v>31171.200000000001</v>
+      </c>
+      <c r="CD14">
         <v>259514</v>
       </c>
-      <c r="CE14" s="0" t="n">
+      <c r="CE14">
         <v>443278</v>
       </c>
-      <c r="CF14" s="0" t="n">
+      <c r="CF14">
         <v>16429</v>
       </c>
-      <c r="CG14" s="0" t="n">
+      <c r="CG14">
         <v>245000</v>
       </c>
-      <c r="CH14" s="0" t="n">
+      <c r="CH14">
         <v>491817</v>
       </c>
-      <c r="CI14" s="0" t="n">
+      <c r="CI14">
         <v>10200.4</v>
       </c>
-      <c r="CJ14" s="0" t="n">
+      <c r="CJ14">
         <v>224193</v>
       </c>
-      <c r="CK14" s="0" t="n">
+      <c r="CK14" s="1">
         <v>1015870</v>
       </c>
-      <c r="CL14" s="0" t="n">
+      <c r="CL14">
         <v>461983</v>
       </c>
-      <c r="CM14" s="0" t="n">
+      <c r="CM14">
         <v>105401</v>
       </c>
-      <c r="CN14" s="0" t="n">
+      <c r="CN14">
         <v>879962</v>
       </c>
-      <c r="CO14" s="0" t="n">
+      <c r="CO14">
         <v>291287</v>
       </c>
-      <c r="CP14" s="0" t="n">
+      <c r="CP14">
         <v>711435</v>
       </c>
-      <c r="CQ14" s="0" t="n">
+      <c r="CQ14">
         <v>723945</v>
       </c>
-      <c r="CR14" s="0" t="n">
+      <c r="CR14">
         <v>48287.9</v>
       </c>
-      <c r="CS14" s="0" t="n">
+      <c r="CS14">
         <v>753368</v>
       </c>
-      <c r="CT14" s="0" t="n">
+      <c r="CT14">
         <v>755895</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>100</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>207497</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>88473.2</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>206357</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>238690</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>243247</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>81493.4</v>
-      </c>
-      <c r="H15" s="0" t="n">
+      <c r="G15">
+        <v>81493.399999999994</v>
+      </c>
+      <c r="H15">
         <v>11838.6</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>67805.4</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="I15">
+        <v>67805.399999999994</v>
+      </c>
+      <c r="J15">
         <v>246628</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>26526.2</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>20391.2</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15">
         <v>58686.9</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>4013.48</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15">
         <v>53960.6</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>63592.9</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15">
         <v>38495.9</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15">
         <v>16081.2</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15">
         <v>21791.5</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15">
         <v>37715.4</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="U15">
         <v>96622.1</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15">
         <v>90170.8</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="W15">
         <v>110449</v>
       </c>
-      <c r="X15" s="0" t="n">
-        <v>37726.8</v>
-      </c>
-      <c r="Y15" s="0" t="n">
+      <c r="X15">
+        <v>37726.800000000003</v>
+      </c>
+      <c r="Y15">
         <v>112841</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="Z15">
         <v>60208.3</v>
       </c>
-      <c r="AA15" s="0" t="n">
-        <v>18248.1</v>
-      </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AA15">
+        <v>18248.099999999999</v>
+      </c>
+      <c r="AB15">
         <v>55811.4</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AC15">
         <v>57538.2</v>
       </c>
-      <c r="AD15" s="0" t="n">
-        <v>73299.1</v>
-      </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AD15">
+        <v>73299.100000000006</v>
+      </c>
+      <c r="AE15">
         <v>154713</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AF15">
         <v>192165</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AG15">
         <v>105092</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AH15">
         <v>66970.7</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AI15">
         <v>79485</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AJ15">
         <v>31690.5</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AK15">
         <v>152323</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AL15">
         <v>120257</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AM15">
         <v>23064.3</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AN15">
         <v>114866</v>
       </c>
-      <c r="AO15" s="0" t="n">
+      <c r="AO15">
         <v>375134</v>
       </c>
-      <c r="AP15" s="0" t="n">
+      <c r="AP15">
         <v>971459</v>
       </c>
-      <c r="AQ15" s="0" t="n">
+      <c r="AQ15">
         <v>307483</v>
       </c>
-      <c r="AR15" s="0" t="n">
-        <v>34125.3</v>
-      </c>
-      <c r="AS15" s="0" t="n">
+      <c r="AR15">
+        <v>34125.300000000003</v>
+      </c>
+      <c r="AS15">
         <v>109825</v>
       </c>
-      <c r="AT15" s="0" t="n">
+      <c r="AT15">
         <v>814200</v>
       </c>
-      <c r="AU15" s="0" t="n">
+      <c r="AU15">
         <v>45786.8</v>
       </c>
-      <c r="AV15" s="0" t="n">
+      <c r="AV15">
         <v>723630</v>
       </c>
-      <c r="AW15" s="0" t="n">
+      <c r="AW15">
         <v>814080</v>
       </c>
-      <c r="AX15" s="0" t="n">
+      <c r="AX15">
         <v>643396</v>
       </c>
-      <c r="AY15" s="0" t="n">
+      <c r="AY15">
         <v>49847.1</v>
       </c>
-      <c r="AZ15" s="0" t="n">
+      <c r="AZ15">
         <v>208357</v>
       </c>
-      <c r="BA15" s="0" t="n">
+      <c r="BA15">
         <v>246012</v>
       </c>
-      <c r="BB15" s="0" t="n">
+      <c r="BB15">
         <v>228014</v>
       </c>
-      <c r="BC15" s="0" t="n">
+      <c r="BC15">
         <v>192112</v>
       </c>
-      <c r="BD15" s="0" t="n">
+      <c r="BD15">
         <v>78749.7</v>
       </c>
-      <c r="BE15" s="0" t="n">
+      <c r="BE15">
         <v>58812.4</v>
       </c>
-      <c r="BF15" s="0" t="n">
+      <c r="BF15">
         <v>147283</v>
       </c>
-      <c r="BG15" s="0" t="n">
-        <v>50882.4</v>
-      </c>
-      <c r="BH15" s="0" t="n">
+      <c r="BG15">
+        <v>50882.400000000001</v>
+      </c>
+      <c r="BH15">
         <v>282797</v>
       </c>
-      <c r="BI15" s="0" t="n">
+      <c r="BI15">
         <v>380227</v>
       </c>
-      <c r="BJ15" s="0" t="n">
+      <c r="BJ15">
         <v>206182</v>
       </c>
-      <c r="BK15" s="0" t="n">
+      <c r="BK15">
         <v>218160</v>
       </c>
-      <c r="BL15" s="0" t="n">
+      <c r="BL15">
         <v>219970</v>
       </c>
-      <c r="BM15" s="0" t="n">
+      <c r="BM15">
         <v>495049</v>
       </c>
-      <c r="BN15" s="0" t="n">
+      <c r="BN15">
         <v>443582</v>
       </c>
-      <c r="BO15" s="0" t="n">
+      <c r="BO15">
         <v>214594</v>
       </c>
-      <c r="BP15" s="0" t="n">
+      <c r="BP15">
         <v>321947</v>
       </c>
-      <c r="BQ15" s="0" t="n">
+      <c r="BQ15">
         <v>108656</v>
       </c>
-      <c r="BR15" s="0" t="n">
+      <c r="BR15">
         <v>149163</v>
       </c>
-      <c r="BS15" s="0" t="n">
+      <c r="BS15">
         <v>445986</v>
       </c>
-      <c r="BT15" s="0" t="n">
+      <c r="BT15">
         <v>275971</v>
       </c>
-      <c r="BU15" s="0" t="n">
+      <c r="BU15">
         <v>67693.5</v>
       </c>
-      <c r="BV15" s="0" t="n">
+      <c r="BV15">
         <v>130475</v>
       </c>
-      <c r="BW15" s="0" t="n">
+      <c r="BW15">
         <v>146477</v>
       </c>
-      <c r="BX15" s="0" t="n">
+      <c r="BX15">
         <v>229152</v>
       </c>
-      <c r="BY15" s="0" t="n">
+      <c r="BY15">
         <v>264021</v>
       </c>
-      <c r="BZ15" s="0" t="n">
+      <c r="BZ15">
         <v>621462</v>
       </c>
-      <c r="CA15" s="0" t="n">
+      <c r="CA15">
         <v>529228</v>
       </c>
-      <c r="CB15" s="0" t="n">
+      <c r="CB15">
         <v>370976</v>
       </c>
-      <c r="CC15" s="0" t="n">
-        <v>31171.2</v>
-      </c>
-      <c r="CD15" s="0" t="n">
+      <c r="CC15">
+        <v>31171.200000000001</v>
+      </c>
+      <c r="CD15">
         <v>259981</v>
       </c>
-      <c r="CE15" s="0" t="n">
+      <c r="CE15">
         <v>443278</v>
       </c>
-      <c r="CF15" s="0" t="n">
+      <c r="CF15">
         <v>16429</v>
       </c>
-      <c r="CG15" s="0" t="n">
+      <c r="CG15">
         <v>245096</v>
       </c>
-      <c r="CH15" s="0" t="n">
+      <c r="CH15">
         <v>491817</v>
       </c>
-      <c r="CI15" s="0" t="n">
+      <c r="CI15">
         <v>10200.4</v>
       </c>
-      <c r="CJ15" s="0" t="n">
+      <c r="CJ15">
         <v>224428</v>
       </c>
-      <c r="CK15" s="0" t="n">
+      <c r="CK15" s="1">
         <v>1015870</v>
       </c>
-      <c r="CL15" s="0" t="n">
+      <c r="CL15">
         <v>461978</v>
       </c>
-      <c r="CM15" s="0" t="n">
+      <c r="CM15">
         <v>105746</v>
       </c>
-      <c r="CN15" s="0" t="n">
+      <c r="CN15">
         <v>880137</v>
       </c>
-      <c r="CO15" s="0" t="n">
+      <c r="CO15">
         <v>291907</v>
       </c>
-      <c r="CP15" s="0" t="n">
+      <c r="CP15">
         <v>711435</v>
       </c>
-      <c r="CQ15" s="0" t="n">
+      <c r="CQ15">
         <v>723945</v>
       </c>
-      <c r="CR15" s="0" t="n">
+      <c r="CR15">
         <v>48287.9</v>
       </c>
-      <c r="CS15" s="0" t="n">
+      <c r="CS15">
         <v>753487</v>
       </c>
-      <c r="CT15" s="0" t="n">
+      <c r="CT15">
         <v>756267</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
